--- a/public/templates/store-template.xlsx
+++ b/public/templates/store-template.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Name*</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>Full Address</t>
+  </si>
+  <si>
+    <t>Landline Number</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
   </si>
   <si>
     <t>SAT-HO Approval Date</t>
@@ -41,9 +47,6 @@
   </si>
   <si>
     <t>Invoice Issuance Number for FO</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>Format: DD/MM/YYYY. Example: 30/01/2023</t>
@@ -348,14 +351,15 @@
     <col customWidth="1" min="2" max="2" width="14.25"/>
     <col customWidth="1" min="3" max="3" width="16.88"/>
     <col customWidth="1" min="4" max="4" width="38.0"/>
-    <col customWidth="1" min="5" max="5" width="19.75"/>
-    <col customWidth="1" min="6" max="6" width="24.75"/>
-    <col customWidth="1" min="7" max="8" width="18.0"/>
-    <col customWidth="1" min="9" max="9" width="21.63"/>
-    <col customWidth="1" min="10" max="10" width="27.38"/>
-    <col customWidth="1" min="11" max="11" width="23.0"/>
-    <col customWidth="1" min="12" max="12" width="14.0"/>
-    <col customWidth="1" min="13" max="13" width="16.5"/>
+    <col customWidth="1" min="5" max="5" width="24.63"/>
+    <col customWidth="1" min="6" max="6" width="22.75"/>
+    <col customWidth="1" min="7" max="7" width="19.75"/>
+    <col customWidth="1" min="8" max="8" width="24.75"/>
+    <col customWidth="1" min="9" max="10" width="18.0"/>
+    <col customWidth="1" min="11" max="11" width="21.63"/>
+    <col customWidth="1" min="12" max="12" width="27.38"/>
+    <col customWidth="1" min="13" max="13" width="14.0"/>
+    <col customWidth="1" min="14" max="14" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -392,4008 +396,4011 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="E2" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="G2" s="3" t="s">
+        <v>12</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3">
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4">
-      <c r="E4" s="4"/>
-      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5">
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6">
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7">
-      <c r="E7" s="4"/>
-      <c r="F7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8">
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9">
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10">
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11">
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12">
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13">
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14">
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15">
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16">
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17">
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="18">
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19">
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20">
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21">
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22">
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23">
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24">
-      <c r="E24" s="6"/>
-      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25">
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26">
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27">
-      <c r="E27" s="6"/>
-      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5"/>
     </row>
     <row r="28">
-      <c r="E28" s="6"/>
-      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29">
-      <c r="E29" s="6"/>
-      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30">
-      <c r="E30" s="6"/>
-      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31">
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="5"/>
     </row>
     <row r="32">
-      <c r="E32" s="6"/>
-      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33">
-      <c r="E33" s="6"/>
-      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34">
-      <c r="E34" s="6"/>
-      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35">
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="5"/>
     </row>
     <row r="36">
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37">
-      <c r="E37" s="6"/>
-      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="5"/>
     </row>
     <row r="38">
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39">
-      <c r="E39" s="6"/>
-      <c r="F39" s="5"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="5"/>
     </row>
     <row r="40">
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41">
-      <c r="E41" s="6"/>
-      <c r="F41" s="5"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42">
-      <c r="E42" s="6"/>
-      <c r="F42" s="5"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43">
-      <c r="E43" s="6"/>
-      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44">
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45">
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46">
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47">
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48">
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49">
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="5"/>
     </row>
     <row r="50">
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51">
-      <c r="E51" s="6"/>
-      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="5"/>
     </row>
     <row r="52">
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53">
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="5"/>
     </row>
     <row r="54">
-      <c r="E54" s="6"/>
-      <c r="F54" s="5"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55">
-      <c r="E55" s="6"/>
-      <c r="F55" s="5"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="5"/>
     </row>
     <row r="56">
-      <c r="E56" s="6"/>
-      <c r="F56" s="5"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57">
-      <c r="E57" s="6"/>
-      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58">
-      <c r="E58" s="6"/>
-      <c r="F58" s="5"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59">
-      <c r="E59" s="6"/>
-      <c r="F59" s="5"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="5"/>
     </row>
     <row r="60">
-      <c r="E60" s="6"/>
-      <c r="F60" s="5"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="5"/>
     </row>
     <row r="61">
-      <c r="E61" s="6"/>
-      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="5"/>
     </row>
     <row r="62">
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="5"/>
     </row>
     <row r="63">
-      <c r="E63" s="6"/>
-      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="5"/>
     </row>
     <row r="64">
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="5"/>
     </row>
     <row r="65">
-      <c r="E65" s="6"/>
-      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="5"/>
     </row>
     <row r="66">
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="5"/>
     </row>
     <row r="67">
-      <c r="E67" s="6"/>
-      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="5"/>
     </row>
     <row r="68">
-      <c r="E68" s="6"/>
-      <c r="F68" s="5"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="5"/>
     </row>
     <row r="69">
-      <c r="E69" s="6"/>
-      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="5"/>
     </row>
     <row r="70">
-      <c r="E70" s="6"/>
-      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="5"/>
     </row>
     <row r="71">
-      <c r="E71" s="6"/>
-      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="5"/>
     </row>
     <row r="72">
-      <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="5"/>
     </row>
     <row r="73">
-      <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="5"/>
     </row>
     <row r="74">
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="5"/>
     </row>
     <row r="75">
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="5"/>
     </row>
     <row r="76">
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="5"/>
     </row>
     <row r="77">
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="5"/>
     </row>
     <row r="78">
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="5"/>
     </row>
     <row r="79">
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="5"/>
     </row>
     <row r="80">
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="5"/>
     </row>
     <row r="81">
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="5"/>
     </row>
     <row r="82">
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="5"/>
     </row>
     <row r="83">
-      <c r="E83" s="6"/>
-      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="5"/>
     </row>
     <row r="84">
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="5"/>
     </row>
     <row r="85">
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="5"/>
     </row>
     <row r="86">
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="5"/>
     </row>
     <row r="87">
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="5"/>
     </row>
     <row r="88">
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="5"/>
     </row>
     <row r="89">
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="5"/>
     </row>
     <row r="90">
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="5"/>
     </row>
     <row r="91">
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="5"/>
     </row>
     <row r="92">
-      <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="5"/>
     </row>
     <row r="93">
-      <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="5"/>
     </row>
     <row r="94">
-      <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="5"/>
     </row>
     <row r="95">
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96">
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="5"/>
     </row>
     <row r="97">
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="5"/>
     </row>
     <row r="98">
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="5"/>
     </row>
     <row r="99">
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="5"/>
     </row>
     <row r="100">
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="5"/>
     </row>
     <row r="101">
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="5"/>
     </row>
     <row r="102">
-      <c r="E102" s="6"/>
-      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="5"/>
     </row>
     <row r="103">
-      <c r="E103" s="6"/>
-      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="5"/>
     </row>
     <row r="104">
-      <c r="E104" s="6"/>
-      <c r="F104" s="5"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="5"/>
     </row>
     <row r="105">
-      <c r="E105" s="6"/>
-      <c r="F105" s="5"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="5"/>
     </row>
     <row r="106">
-      <c r="E106" s="6"/>
-      <c r="F106" s="5"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="5"/>
     </row>
     <row r="107">
-      <c r="E107" s="6"/>
-      <c r="F107" s="5"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108">
-      <c r="E108" s="6"/>
-      <c r="F108" s="5"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="5"/>
     </row>
     <row r="109">
-      <c r="E109" s="6"/>
-      <c r="F109" s="5"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="5"/>
     </row>
     <row r="110">
-      <c r="E110" s="6"/>
-      <c r="F110" s="5"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="5"/>
     </row>
     <row r="111">
-      <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="5"/>
     </row>
     <row r="112">
-      <c r="E112" s="6"/>
-      <c r="F112" s="5"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="5"/>
     </row>
     <row r="113">
-      <c r="E113" s="6"/>
-      <c r="F113" s="5"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="5"/>
     </row>
     <row r="114">
-      <c r="E114" s="6"/>
-      <c r="F114" s="5"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="5"/>
     </row>
     <row r="115">
-      <c r="E115" s="6"/>
-      <c r="F115" s="5"/>
+      <c r="G115" s="6"/>
+      <c r="H115" s="5"/>
     </row>
     <row r="116">
-      <c r="E116" s="6"/>
-      <c r="F116" s="5"/>
+      <c r="G116" s="6"/>
+      <c r="H116" s="5"/>
     </row>
     <row r="117">
-      <c r="E117" s="6"/>
-      <c r="F117" s="5"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="5"/>
     </row>
     <row r="118">
-      <c r="E118" s="6"/>
-      <c r="F118" s="5"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="5"/>
     </row>
     <row r="119">
-      <c r="E119" s="6"/>
-      <c r="F119" s="5"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="5"/>
     </row>
     <row r="120">
-      <c r="E120" s="6"/>
-      <c r="F120" s="5"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="5"/>
     </row>
     <row r="121">
-      <c r="E121" s="6"/>
-      <c r="F121" s="5"/>
+      <c r="G121" s="6"/>
+      <c r="H121" s="5"/>
     </row>
     <row r="122">
-      <c r="E122" s="6"/>
-      <c r="F122" s="5"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="5"/>
     </row>
     <row r="123">
-      <c r="E123" s="6"/>
-      <c r="F123" s="5"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5"/>
     </row>
     <row r="124">
-      <c r="E124" s="6"/>
-      <c r="F124" s="5"/>
+      <c r="G124" s="6"/>
+      <c r="H124" s="5"/>
     </row>
     <row r="125">
-      <c r="E125" s="6"/>
-      <c r="F125" s="5"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="5"/>
     </row>
     <row r="126">
-      <c r="E126" s="6"/>
-      <c r="F126" s="5"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="5"/>
     </row>
     <row r="127">
-      <c r="E127" s="6"/>
-      <c r="F127" s="5"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="5"/>
     </row>
     <row r="128">
-      <c r="E128" s="6"/>
-      <c r="F128" s="5"/>
+      <c r="G128" s="6"/>
+      <c r="H128" s="5"/>
     </row>
     <row r="129">
-      <c r="E129" s="6"/>
-      <c r="F129" s="5"/>
+      <c r="G129" s="6"/>
+      <c r="H129" s="5"/>
     </row>
     <row r="130">
-      <c r="E130" s="6"/>
-      <c r="F130" s="5"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="5"/>
     </row>
     <row r="131">
-      <c r="E131" s="6"/>
-      <c r="F131" s="5"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="5"/>
     </row>
     <row r="132">
-      <c r="E132" s="6"/>
-      <c r="F132" s="5"/>
+      <c r="G132" s="6"/>
+      <c r="H132" s="5"/>
     </row>
     <row r="133">
-      <c r="E133" s="6"/>
-      <c r="F133" s="5"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="5"/>
     </row>
     <row r="134">
-      <c r="E134" s="6"/>
-      <c r="F134" s="5"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="5"/>
     </row>
     <row r="135">
-      <c r="E135" s="6"/>
-      <c r="F135" s="5"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="5"/>
     </row>
     <row r="136">
-      <c r="E136" s="6"/>
-      <c r="F136" s="5"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="5"/>
     </row>
     <row r="137">
-      <c r="E137" s="6"/>
-      <c r="F137" s="5"/>
+      <c r="G137" s="6"/>
+      <c r="H137" s="5"/>
     </row>
     <row r="138">
-      <c r="E138" s="6"/>
-      <c r="F138" s="5"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="5"/>
     </row>
     <row r="139">
-      <c r="E139" s="6"/>
-      <c r="F139" s="5"/>
+      <c r="G139" s="6"/>
+      <c r="H139" s="5"/>
     </row>
     <row r="140">
-      <c r="E140" s="6"/>
-      <c r="F140" s="5"/>
+      <c r="G140" s="6"/>
+      <c r="H140" s="5"/>
     </row>
     <row r="141">
-      <c r="E141" s="6"/>
-      <c r="F141" s="5"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="5"/>
     </row>
     <row r="142">
-      <c r="E142" s="6"/>
-      <c r="F142" s="5"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="5"/>
     </row>
     <row r="143">
-      <c r="E143" s="6"/>
-      <c r="F143" s="5"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="5"/>
     </row>
     <row r="144">
-      <c r="E144" s="6"/>
-      <c r="F144" s="5"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="5"/>
     </row>
     <row r="145">
-      <c r="E145" s="6"/>
-      <c r="F145" s="5"/>
+      <c r="G145" s="6"/>
+      <c r="H145" s="5"/>
     </row>
     <row r="146">
-      <c r="E146" s="6"/>
-      <c r="F146" s="5"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="5"/>
     </row>
     <row r="147">
-      <c r="E147" s="6"/>
-      <c r="F147" s="5"/>
+      <c r="G147" s="6"/>
+      <c r="H147" s="5"/>
     </row>
     <row r="148">
-      <c r="E148" s="6"/>
-      <c r="F148" s="5"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="5"/>
     </row>
     <row r="149">
-      <c r="E149" s="6"/>
-      <c r="F149" s="5"/>
+      <c r="G149" s="6"/>
+      <c r="H149" s="5"/>
     </row>
     <row r="150">
-      <c r="E150" s="6"/>
-      <c r="F150" s="5"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="5"/>
     </row>
     <row r="151">
-      <c r="E151" s="6"/>
-      <c r="F151" s="5"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="5"/>
     </row>
     <row r="152">
-      <c r="E152" s="6"/>
-      <c r="F152" s="5"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="5"/>
     </row>
     <row r="153">
-      <c r="E153" s="6"/>
-      <c r="F153" s="5"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="5"/>
     </row>
     <row r="154">
-      <c r="E154" s="6"/>
-      <c r="F154" s="5"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="5"/>
     </row>
     <row r="155">
-      <c r="E155" s="6"/>
-      <c r="F155" s="5"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="5"/>
     </row>
     <row r="156">
-      <c r="E156" s="6"/>
-      <c r="F156" s="5"/>
+      <c r="G156" s="6"/>
+      <c r="H156" s="5"/>
     </row>
     <row r="157">
-      <c r="E157" s="6"/>
-      <c r="F157" s="5"/>
+      <c r="G157" s="6"/>
+      <c r="H157" s="5"/>
     </row>
     <row r="158">
-      <c r="E158" s="6"/>
-      <c r="F158" s="5"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="5"/>
     </row>
     <row r="159">
-      <c r="E159" s="6"/>
-      <c r="F159" s="5"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="5"/>
     </row>
     <row r="160">
-      <c r="E160" s="6"/>
-      <c r="F160" s="5"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="5"/>
     </row>
     <row r="161">
-      <c r="E161" s="6"/>
-      <c r="F161" s="5"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="5"/>
     </row>
     <row r="162">
-      <c r="E162" s="6"/>
-      <c r="F162" s="5"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="5"/>
     </row>
     <row r="163">
-      <c r="E163" s="6"/>
-      <c r="F163" s="5"/>
+      <c r="G163" s="6"/>
+      <c r="H163" s="5"/>
     </row>
     <row r="164">
-      <c r="E164" s="6"/>
-      <c r="F164" s="5"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="5"/>
     </row>
     <row r="165">
-      <c r="E165" s="6"/>
-      <c r="F165" s="5"/>
+      <c r="G165" s="6"/>
+      <c r="H165" s="5"/>
     </row>
     <row r="166">
-      <c r="E166" s="6"/>
-      <c r="F166" s="5"/>
+      <c r="G166" s="6"/>
+      <c r="H166" s="5"/>
     </row>
     <row r="167">
-      <c r="E167" s="6"/>
-      <c r="F167" s="5"/>
+      <c r="G167" s="6"/>
+      <c r="H167" s="5"/>
     </row>
     <row r="168">
-      <c r="E168" s="6"/>
-      <c r="F168" s="5"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="5"/>
     </row>
     <row r="169">
-      <c r="E169" s="6"/>
-      <c r="F169" s="5"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="5"/>
     </row>
     <row r="170">
-      <c r="E170" s="6"/>
-      <c r="F170" s="5"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="5"/>
     </row>
     <row r="171">
-      <c r="E171" s="6"/>
-      <c r="F171" s="5"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="5"/>
     </row>
     <row r="172">
-      <c r="E172" s="6"/>
-      <c r="F172" s="5"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="5"/>
     </row>
     <row r="173">
-      <c r="E173" s="6"/>
-      <c r="F173" s="5"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="5"/>
     </row>
     <row r="174">
-      <c r="E174" s="6"/>
-      <c r="F174" s="5"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="5"/>
     </row>
     <row r="175">
-      <c r="E175" s="6"/>
-      <c r="F175" s="5"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="5"/>
     </row>
     <row r="176">
-      <c r="E176" s="6"/>
-      <c r="F176" s="5"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="5"/>
     </row>
     <row r="177">
-      <c r="E177" s="6"/>
-      <c r="F177" s="5"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="5"/>
     </row>
     <row r="178">
-      <c r="E178" s="6"/>
-      <c r="F178" s="5"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="5"/>
     </row>
     <row r="179">
-      <c r="E179" s="6"/>
-      <c r="F179" s="5"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="5"/>
     </row>
     <row r="180">
-      <c r="E180" s="6"/>
-      <c r="F180" s="5"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="5"/>
     </row>
     <row r="181">
-      <c r="E181" s="6"/>
-      <c r="F181" s="5"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="5"/>
     </row>
     <row r="182">
-      <c r="E182" s="6"/>
-      <c r="F182" s="5"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="5"/>
     </row>
     <row r="183">
-      <c r="E183" s="6"/>
-      <c r="F183" s="5"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="5"/>
     </row>
     <row r="184">
-      <c r="E184" s="6"/>
-      <c r="F184" s="5"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="5"/>
     </row>
     <row r="185">
-      <c r="E185" s="6"/>
-      <c r="F185" s="5"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="5"/>
     </row>
     <row r="186">
-      <c r="E186" s="6"/>
-      <c r="F186" s="5"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="5"/>
     </row>
     <row r="187">
-      <c r="E187" s="6"/>
-      <c r="F187" s="5"/>
+      <c r="G187" s="6"/>
+      <c r="H187" s="5"/>
     </row>
     <row r="188">
-      <c r="E188" s="6"/>
-      <c r="F188" s="5"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="5"/>
     </row>
     <row r="189">
-      <c r="E189" s="6"/>
-      <c r="F189" s="5"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="5"/>
     </row>
     <row r="190">
-      <c r="E190" s="6"/>
-      <c r="F190" s="5"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="5"/>
     </row>
     <row r="191">
-      <c r="E191" s="6"/>
-      <c r="F191" s="5"/>
+      <c r="G191" s="6"/>
+      <c r="H191" s="5"/>
     </row>
     <row r="192">
-      <c r="E192" s="6"/>
-      <c r="F192" s="5"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="5"/>
     </row>
     <row r="193">
-      <c r="E193" s="6"/>
-      <c r="F193" s="5"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="5"/>
     </row>
     <row r="194">
-      <c r="E194" s="6"/>
-      <c r="F194" s="5"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="5"/>
     </row>
     <row r="195">
-      <c r="E195" s="6"/>
-      <c r="F195" s="5"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="5"/>
     </row>
     <row r="196">
-      <c r="E196" s="6"/>
-      <c r="F196" s="5"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="5"/>
     </row>
     <row r="197">
-      <c r="E197" s="6"/>
-      <c r="F197" s="5"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="5"/>
     </row>
     <row r="198">
-      <c r="E198" s="6"/>
-      <c r="F198" s="5"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="5"/>
     </row>
     <row r="199">
-      <c r="E199" s="6"/>
-      <c r="F199" s="5"/>
+      <c r="G199" s="6"/>
+      <c r="H199" s="5"/>
     </row>
     <row r="200">
-      <c r="E200" s="6"/>
-      <c r="F200" s="5"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="5"/>
     </row>
     <row r="201">
-      <c r="E201" s="6"/>
-      <c r="F201" s="5"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="5"/>
     </row>
     <row r="202">
-      <c r="E202" s="6"/>
-      <c r="F202" s="5"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="5"/>
     </row>
     <row r="203">
-      <c r="E203" s="6"/>
-      <c r="F203" s="5"/>
+      <c r="G203" s="6"/>
+      <c r="H203" s="5"/>
     </row>
     <row r="204">
-      <c r="E204" s="6"/>
-      <c r="F204" s="5"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="5"/>
     </row>
     <row r="205">
-      <c r="E205" s="6"/>
-      <c r="F205" s="5"/>
+      <c r="G205" s="6"/>
+      <c r="H205" s="5"/>
     </row>
     <row r="206">
-      <c r="E206" s="6"/>
-      <c r="F206" s="5"/>
+      <c r="G206" s="6"/>
+      <c r="H206" s="5"/>
     </row>
     <row r="207">
-      <c r="E207" s="6"/>
-      <c r="F207" s="5"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="5"/>
     </row>
     <row r="208">
-      <c r="E208" s="6"/>
-      <c r="F208" s="5"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="5"/>
     </row>
     <row r="209">
-      <c r="E209" s="6"/>
-      <c r="F209" s="5"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="5"/>
     </row>
     <row r="210">
-      <c r="E210" s="6"/>
-      <c r="F210" s="5"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="5"/>
     </row>
     <row r="211">
-      <c r="E211" s="6"/>
-      <c r="F211" s="5"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="5"/>
     </row>
     <row r="212">
-      <c r="E212" s="6"/>
-      <c r="F212" s="5"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="5"/>
     </row>
     <row r="213">
-      <c r="E213" s="6"/>
-      <c r="F213" s="5"/>
+      <c r="G213" s="6"/>
+      <c r="H213" s="5"/>
     </row>
     <row r="214">
-      <c r="E214" s="6"/>
-      <c r="F214" s="5"/>
+      <c r="G214" s="6"/>
+      <c r="H214" s="5"/>
     </row>
     <row r="215">
-      <c r="E215" s="6"/>
-      <c r="F215" s="5"/>
+      <c r="G215" s="6"/>
+      <c r="H215" s="5"/>
     </row>
     <row r="216">
-      <c r="E216" s="6"/>
-      <c r="F216" s="5"/>
+      <c r="G216" s="6"/>
+      <c r="H216" s="5"/>
     </row>
     <row r="217">
-      <c r="E217" s="6"/>
-      <c r="F217" s="5"/>
+      <c r="G217" s="6"/>
+      <c r="H217" s="5"/>
     </row>
     <row r="218">
-      <c r="E218" s="6"/>
-      <c r="F218" s="5"/>
+      <c r="G218" s="6"/>
+      <c r="H218" s="5"/>
     </row>
     <row r="219">
-      <c r="E219" s="6"/>
-      <c r="F219" s="5"/>
+      <c r="G219" s="6"/>
+      <c r="H219" s="5"/>
     </row>
     <row r="220">
-      <c r="E220" s="6"/>
-      <c r="F220" s="5"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="5"/>
     </row>
     <row r="221">
-      <c r="E221" s="6"/>
-      <c r="F221" s="5"/>
+      <c r="G221" s="6"/>
+      <c r="H221" s="5"/>
     </row>
     <row r="222">
-      <c r="E222" s="6"/>
-      <c r="F222" s="5"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="5"/>
     </row>
     <row r="223">
-      <c r="E223" s="6"/>
-      <c r="F223" s="5"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="5"/>
     </row>
     <row r="224">
-      <c r="E224" s="6"/>
-      <c r="F224" s="5"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="5"/>
     </row>
     <row r="225">
-      <c r="E225" s="6"/>
-      <c r="F225" s="5"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="5"/>
     </row>
     <row r="226">
-      <c r="E226" s="6"/>
-      <c r="F226" s="5"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="5"/>
     </row>
     <row r="227">
-      <c r="E227" s="6"/>
-      <c r="F227" s="5"/>
+      <c r="G227" s="6"/>
+      <c r="H227" s="5"/>
     </row>
     <row r="228">
-      <c r="E228" s="6"/>
-      <c r="F228" s="5"/>
+      <c r="G228" s="6"/>
+      <c r="H228" s="5"/>
     </row>
     <row r="229">
-      <c r="E229" s="6"/>
-      <c r="F229" s="5"/>
+      <c r="G229" s="6"/>
+      <c r="H229" s="5"/>
     </row>
     <row r="230">
-      <c r="E230" s="6"/>
-      <c r="F230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="H230" s="5"/>
     </row>
     <row r="231">
-      <c r="E231" s="6"/>
-      <c r="F231" s="5"/>
+      <c r="G231" s="6"/>
+      <c r="H231" s="5"/>
     </row>
     <row r="232">
-      <c r="E232" s="6"/>
-      <c r="F232" s="5"/>
+      <c r="G232" s="6"/>
+      <c r="H232" s="5"/>
     </row>
     <row r="233">
-      <c r="E233" s="6"/>
-      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="H233" s="5"/>
     </row>
     <row r="234">
-      <c r="E234" s="6"/>
-      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="5"/>
     </row>
     <row r="235">
-      <c r="E235" s="6"/>
-      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="H235" s="5"/>
     </row>
     <row r="236">
-      <c r="E236" s="6"/>
-      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="H236" s="5"/>
     </row>
     <row r="237">
-      <c r="E237" s="6"/>
-      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="H237" s="5"/>
     </row>
     <row r="238">
-      <c r="E238" s="6"/>
-      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="H238" s="5"/>
     </row>
     <row r="239">
-      <c r="E239" s="6"/>
-      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="H239" s="5"/>
     </row>
     <row r="240">
-      <c r="E240" s="6"/>
-      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="H240" s="5"/>
     </row>
     <row r="241">
-      <c r="E241" s="6"/>
-      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="H241" s="5"/>
     </row>
     <row r="242">
-      <c r="E242" s="6"/>
-      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="5"/>
     </row>
     <row r="243">
-      <c r="E243" s="6"/>
-      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="5"/>
     </row>
     <row r="244">
-      <c r="E244" s="6"/>
-      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="5"/>
     </row>
     <row r="245">
-      <c r="E245" s="6"/>
-      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="5"/>
     </row>
     <row r="246">
-      <c r="E246" s="6"/>
-      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="5"/>
     </row>
     <row r="247">
-      <c r="E247" s="6"/>
-      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="5"/>
     </row>
     <row r="248">
-      <c r="E248" s="6"/>
-      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="5"/>
     </row>
     <row r="249">
-      <c r="E249" s="6"/>
-      <c r="F249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="5"/>
     </row>
     <row r="250">
-      <c r="E250" s="6"/>
-      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="5"/>
     </row>
     <row r="251">
-      <c r="E251" s="6"/>
-      <c r="F251" s="5"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="5"/>
     </row>
     <row r="252">
-      <c r="E252" s="6"/>
-      <c r="F252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="5"/>
     </row>
     <row r="253">
-      <c r="E253" s="6"/>
-      <c r="F253" s="5"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="5"/>
     </row>
     <row r="254">
-      <c r="E254" s="6"/>
-      <c r="F254" s="5"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="5"/>
     </row>
     <row r="255">
-      <c r="E255" s="6"/>
-      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="5"/>
     </row>
     <row r="256">
-      <c r="E256" s="6"/>
-      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="5"/>
     </row>
     <row r="257">
-      <c r="E257" s="6"/>
-      <c r="F257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="5"/>
     </row>
     <row r="258">
-      <c r="E258" s="6"/>
-      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="5"/>
     </row>
     <row r="259">
-      <c r="E259" s="6"/>
-      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="5"/>
     </row>
     <row r="260">
-      <c r="E260" s="6"/>
-      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="5"/>
     </row>
     <row r="261">
-      <c r="E261" s="6"/>
-      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="5"/>
     </row>
     <row r="262">
-      <c r="E262" s="6"/>
-      <c r="F262" s="5"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="5"/>
     </row>
     <row r="263">
-      <c r="E263" s="6"/>
-      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="5"/>
     </row>
     <row r="264">
-      <c r="E264" s="6"/>
-      <c r="F264" s="5"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="5"/>
     </row>
     <row r="265">
-      <c r="E265" s="6"/>
-      <c r="F265" s="5"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="5"/>
     </row>
     <row r="266">
-      <c r="E266" s="6"/>
-      <c r="F266" s="5"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="5"/>
     </row>
     <row r="267">
-      <c r="E267" s="6"/>
-      <c r="F267" s="5"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="5"/>
     </row>
     <row r="268">
-      <c r="E268" s="6"/>
-      <c r="F268" s="5"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="5"/>
     </row>
     <row r="269">
-      <c r="E269" s="6"/>
-      <c r="F269" s="5"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="5"/>
     </row>
     <row r="270">
-      <c r="E270" s="6"/>
-      <c r="F270" s="5"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="5"/>
     </row>
     <row r="271">
-      <c r="E271" s="6"/>
-      <c r="F271" s="5"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="5"/>
     </row>
     <row r="272">
-      <c r="E272" s="6"/>
-      <c r="F272" s="5"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="5"/>
     </row>
     <row r="273">
-      <c r="E273" s="6"/>
-      <c r="F273" s="5"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="5"/>
     </row>
     <row r="274">
-      <c r="E274" s="6"/>
-      <c r="F274" s="5"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="5"/>
     </row>
     <row r="275">
-      <c r="E275" s="6"/>
-      <c r="F275" s="5"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="5"/>
     </row>
     <row r="276">
-      <c r="E276" s="6"/>
-      <c r="F276" s="5"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="5"/>
     </row>
     <row r="277">
-      <c r="E277" s="6"/>
-      <c r="F277" s="5"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="5"/>
     </row>
     <row r="278">
-      <c r="E278" s="6"/>
-      <c r="F278" s="5"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="5"/>
     </row>
     <row r="279">
-      <c r="E279" s="6"/>
-      <c r="F279" s="5"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="5"/>
     </row>
     <row r="280">
-      <c r="E280" s="6"/>
-      <c r="F280" s="5"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="5"/>
     </row>
     <row r="281">
-      <c r="E281" s="6"/>
-      <c r="F281" s="5"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="5"/>
     </row>
     <row r="282">
-      <c r="E282" s="6"/>
-      <c r="F282" s="5"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="5"/>
     </row>
     <row r="283">
-      <c r="E283" s="6"/>
-      <c r="F283" s="5"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="5"/>
     </row>
     <row r="284">
-      <c r="E284" s="6"/>
-      <c r="F284" s="5"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="5"/>
     </row>
     <row r="285">
-      <c r="E285" s="6"/>
-      <c r="F285" s="5"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="5"/>
     </row>
     <row r="286">
-      <c r="E286" s="6"/>
-      <c r="F286" s="5"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="5"/>
     </row>
     <row r="287">
-      <c r="E287" s="6"/>
-      <c r="F287" s="5"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="5"/>
     </row>
     <row r="288">
-      <c r="E288" s="6"/>
-      <c r="F288" s="5"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="5"/>
     </row>
     <row r="289">
-      <c r="E289" s="6"/>
-      <c r="F289" s="5"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="5"/>
     </row>
     <row r="290">
-      <c r="E290" s="6"/>
-      <c r="F290" s="5"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="5"/>
     </row>
     <row r="291">
-      <c r="E291" s="6"/>
-      <c r="F291" s="5"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="5"/>
     </row>
     <row r="292">
-      <c r="E292" s="6"/>
-      <c r="F292" s="5"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="5"/>
     </row>
     <row r="293">
-      <c r="E293" s="6"/>
-      <c r="F293" s="5"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="5"/>
     </row>
     <row r="294">
-      <c r="E294" s="6"/>
-      <c r="F294" s="5"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="5"/>
     </row>
     <row r="295">
-      <c r="E295" s="6"/>
-      <c r="F295" s="5"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="5"/>
     </row>
     <row r="296">
-      <c r="E296" s="6"/>
-      <c r="F296" s="5"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="5"/>
     </row>
     <row r="297">
-      <c r="E297" s="6"/>
-      <c r="F297" s="5"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="5"/>
     </row>
     <row r="298">
-      <c r="E298" s="6"/>
-      <c r="F298" s="5"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="5"/>
     </row>
     <row r="299">
-      <c r="E299" s="6"/>
-      <c r="F299" s="5"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="5"/>
     </row>
     <row r="300">
-      <c r="E300" s="6"/>
-      <c r="F300" s="5"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="5"/>
     </row>
     <row r="301">
-      <c r="E301" s="6"/>
-      <c r="F301" s="5"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="5"/>
     </row>
     <row r="302">
-      <c r="E302" s="6"/>
-      <c r="F302" s="5"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="5"/>
     </row>
     <row r="303">
-      <c r="E303" s="6"/>
-      <c r="F303" s="5"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="5"/>
     </row>
     <row r="304">
-      <c r="E304" s="6"/>
-      <c r="F304" s="5"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="5"/>
     </row>
     <row r="305">
-      <c r="E305" s="6"/>
-      <c r="F305" s="5"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="5"/>
     </row>
     <row r="306">
-      <c r="E306" s="6"/>
-      <c r="F306" s="5"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="5"/>
     </row>
     <row r="307">
-      <c r="E307" s="6"/>
-      <c r="F307" s="5"/>
+      <c r="G307" s="6"/>
+      <c r="H307" s="5"/>
     </row>
     <row r="308">
-      <c r="E308" s="6"/>
-      <c r="F308" s="5"/>
+      <c r="G308" s="6"/>
+      <c r="H308" s="5"/>
     </row>
     <row r="309">
-      <c r="E309" s="6"/>
-      <c r="F309" s="5"/>
+      <c r="G309" s="6"/>
+      <c r="H309" s="5"/>
     </row>
     <row r="310">
-      <c r="E310" s="6"/>
-      <c r="F310" s="5"/>
+      <c r="G310" s="6"/>
+      <c r="H310" s="5"/>
     </row>
     <row r="311">
-      <c r="E311" s="6"/>
-      <c r="F311" s="5"/>
+      <c r="G311" s="6"/>
+      <c r="H311" s="5"/>
     </row>
     <row r="312">
-      <c r="E312" s="6"/>
-      <c r="F312" s="5"/>
+      <c r="G312" s="6"/>
+      <c r="H312" s="5"/>
     </row>
     <row r="313">
-      <c r="E313" s="6"/>
-      <c r="F313" s="5"/>
+      <c r="G313" s="6"/>
+      <c r="H313" s="5"/>
     </row>
     <row r="314">
-      <c r="E314" s="6"/>
-      <c r="F314" s="5"/>
+      <c r="G314" s="6"/>
+      <c r="H314" s="5"/>
     </row>
     <row r="315">
-      <c r="E315" s="6"/>
-      <c r="F315" s="5"/>
+      <c r="G315" s="6"/>
+      <c r="H315" s="5"/>
     </row>
     <row r="316">
-      <c r="E316" s="6"/>
-      <c r="F316" s="5"/>
+      <c r="G316" s="6"/>
+      <c r="H316" s="5"/>
     </row>
     <row r="317">
-      <c r="E317" s="6"/>
-      <c r="F317" s="5"/>
+      <c r="G317" s="6"/>
+      <c r="H317" s="5"/>
     </row>
     <row r="318">
-      <c r="E318" s="6"/>
-      <c r="F318" s="5"/>
+      <c r="G318" s="6"/>
+      <c r="H318" s="5"/>
     </row>
     <row r="319">
-      <c r="E319" s="6"/>
-      <c r="F319" s="5"/>
+      <c r="G319" s="6"/>
+      <c r="H319" s="5"/>
     </row>
     <row r="320">
-      <c r="E320" s="6"/>
-      <c r="F320" s="5"/>
+      <c r="G320" s="6"/>
+      <c r="H320" s="5"/>
     </row>
     <row r="321">
-      <c r="E321" s="6"/>
-      <c r="F321" s="5"/>
+      <c r="G321" s="6"/>
+      <c r="H321" s="5"/>
     </row>
     <row r="322">
-      <c r="E322" s="6"/>
-      <c r="F322" s="5"/>
+      <c r="G322" s="6"/>
+      <c r="H322" s="5"/>
     </row>
     <row r="323">
-      <c r="E323" s="6"/>
-      <c r="F323" s="5"/>
+      <c r="G323" s="6"/>
+      <c r="H323" s="5"/>
     </row>
     <row r="324">
-      <c r="E324" s="6"/>
-      <c r="F324" s="5"/>
+      <c r="G324" s="6"/>
+      <c r="H324" s="5"/>
     </row>
     <row r="325">
-      <c r="E325" s="6"/>
-      <c r="F325" s="5"/>
+      <c r="G325" s="6"/>
+      <c r="H325" s="5"/>
     </row>
     <row r="326">
-      <c r="E326" s="6"/>
-      <c r="F326" s="5"/>
+      <c r="G326" s="6"/>
+      <c r="H326" s="5"/>
     </row>
     <row r="327">
-      <c r="E327" s="6"/>
-      <c r="F327" s="5"/>
+      <c r="G327" s="6"/>
+      <c r="H327" s="5"/>
     </row>
     <row r="328">
-      <c r="E328" s="6"/>
-      <c r="F328" s="5"/>
+      <c r="G328" s="6"/>
+      <c r="H328" s="5"/>
     </row>
     <row r="329">
-      <c r="E329" s="6"/>
-      <c r="F329" s="5"/>
+      <c r="G329" s="6"/>
+      <c r="H329" s="5"/>
     </row>
     <row r="330">
-      <c r="E330" s="6"/>
-      <c r="F330" s="5"/>
+      <c r="G330" s="6"/>
+      <c r="H330" s="5"/>
     </row>
     <row r="331">
-      <c r="E331" s="6"/>
-      <c r="F331" s="5"/>
+      <c r="G331" s="6"/>
+      <c r="H331" s="5"/>
     </row>
     <row r="332">
-      <c r="E332" s="6"/>
-      <c r="F332" s="5"/>
+      <c r="G332" s="6"/>
+      <c r="H332" s="5"/>
     </row>
     <row r="333">
-      <c r="E333" s="6"/>
-      <c r="F333" s="5"/>
+      <c r="G333" s="6"/>
+      <c r="H333" s="5"/>
     </row>
     <row r="334">
-      <c r="E334" s="6"/>
-      <c r="F334" s="5"/>
+      <c r="G334" s="6"/>
+      <c r="H334" s="5"/>
     </row>
     <row r="335">
-      <c r="E335" s="6"/>
-      <c r="F335" s="5"/>
+      <c r="G335" s="6"/>
+      <c r="H335" s="5"/>
     </row>
     <row r="336">
-      <c r="E336" s="6"/>
-      <c r="F336" s="5"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="5"/>
     </row>
     <row r="337">
-      <c r="E337" s="6"/>
-      <c r="F337" s="5"/>
+      <c r="G337" s="6"/>
+      <c r="H337" s="5"/>
     </row>
     <row r="338">
-      <c r="E338" s="6"/>
-      <c r="F338" s="5"/>
+      <c r="G338" s="6"/>
+      <c r="H338" s="5"/>
     </row>
     <row r="339">
-      <c r="E339" s="6"/>
-      <c r="F339" s="5"/>
+      <c r="G339" s="6"/>
+      <c r="H339" s="5"/>
     </row>
     <row r="340">
-      <c r="E340" s="6"/>
-      <c r="F340" s="5"/>
+      <c r="G340" s="6"/>
+      <c r="H340" s="5"/>
     </row>
     <row r="341">
-      <c r="E341" s="6"/>
-      <c r="F341" s="5"/>
+      <c r="G341" s="6"/>
+      <c r="H341" s="5"/>
     </row>
     <row r="342">
-      <c r="E342" s="6"/>
-      <c r="F342" s="5"/>
+      <c r="G342" s="6"/>
+      <c r="H342" s="5"/>
     </row>
     <row r="343">
-      <c r="E343" s="6"/>
-      <c r="F343" s="5"/>
+      <c r="G343" s="6"/>
+      <c r="H343" s="5"/>
     </row>
     <row r="344">
-      <c r="E344" s="6"/>
-      <c r="F344" s="5"/>
+      <c r="G344" s="6"/>
+      <c r="H344" s="5"/>
     </row>
     <row r="345">
-      <c r="E345" s="6"/>
-      <c r="F345" s="5"/>
+      <c r="G345" s="6"/>
+      <c r="H345" s="5"/>
     </row>
     <row r="346">
-      <c r="E346" s="6"/>
-      <c r="F346" s="5"/>
+      <c r="G346" s="6"/>
+      <c r="H346" s="5"/>
     </row>
     <row r="347">
-      <c r="E347" s="6"/>
-      <c r="F347" s="5"/>
+      <c r="G347" s="6"/>
+      <c r="H347" s="5"/>
     </row>
     <row r="348">
-      <c r="E348" s="6"/>
-      <c r="F348" s="5"/>
+      <c r="G348" s="6"/>
+      <c r="H348" s="5"/>
     </row>
     <row r="349">
-      <c r="E349" s="6"/>
-      <c r="F349" s="5"/>
+      <c r="G349" s="6"/>
+      <c r="H349" s="5"/>
     </row>
     <row r="350">
-      <c r="E350" s="6"/>
-      <c r="F350" s="5"/>
+      <c r="G350" s="6"/>
+      <c r="H350" s="5"/>
     </row>
     <row r="351">
-      <c r="E351" s="6"/>
-      <c r="F351" s="5"/>
+      <c r="G351" s="6"/>
+      <c r="H351" s="5"/>
     </row>
     <row r="352">
-      <c r="E352" s="6"/>
-      <c r="F352" s="5"/>
+      <c r="G352" s="6"/>
+      <c r="H352" s="5"/>
     </row>
     <row r="353">
-      <c r="E353" s="6"/>
-      <c r="F353" s="5"/>
+      <c r="G353" s="6"/>
+      <c r="H353" s="5"/>
     </row>
     <row r="354">
-      <c r="E354" s="6"/>
-      <c r="F354" s="5"/>
+      <c r="G354" s="6"/>
+      <c r="H354" s="5"/>
     </row>
     <row r="355">
-      <c r="E355" s="6"/>
-      <c r="F355" s="5"/>
+      <c r="G355" s="6"/>
+      <c r="H355" s="5"/>
     </row>
     <row r="356">
-      <c r="E356" s="6"/>
-      <c r="F356" s="5"/>
+      <c r="G356" s="6"/>
+      <c r="H356" s="5"/>
     </row>
     <row r="357">
-      <c r="E357" s="6"/>
-      <c r="F357" s="5"/>
+      <c r="G357" s="6"/>
+      <c r="H357" s="5"/>
     </row>
     <row r="358">
-      <c r="E358" s="6"/>
-      <c r="F358" s="5"/>
+      <c r="G358" s="6"/>
+      <c r="H358" s="5"/>
     </row>
     <row r="359">
-      <c r="E359" s="6"/>
-      <c r="F359" s="5"/>
+      <c r="G359" s="6"/>
+      <c r="H359" s="5"/>
     </row>
     <row r="360">
-      <c r="E360" s="6"/>
-      <c r="F360" s="5"/>
+      <c r="G360" s="6"/>
+      <c r="H360" s="5"/>
     </row>
     <row r="361">
-      <c r="E361" s="6"/>
-      <c r="F361" s="5"/>
+      <c r="G361" s="6"/>
+      <c r="H361" s="5"/>
     </row>
     <row r="362">
-      <c r="E362" s="6"/>
-      <c r="F362" s="5"/>
+      <c r="G362" s="6"/>
+      <c r="H362" s="5"/>
     </row>
     <row r="363">
-      <c r="E363" s="6"/>
-      <c r="F363" s="5"/>
+      <c r="G363" s="6"/>
+      <c r="H363" s="5"/>
     </row>
     <row r="364">
-      <c r="E364" s="6"/>
-      <c r="F364" s="5"/>
+      <c r="G364" s="6"/>
+      <c r="H364" s="5"/>
     </row>
     <row r="365">
-      <c r="E365" s="6"/>
-      <c r="F365" s="5"/>
+      <c r="G365" s="6"/>
+      <c r="H365" s="5"/>
     </row>
     <row r="366">
-      <c r="E366" s="6"/>
-      <c r="F366" s="5"/>
+      <c r="G366" s="6"/>
+      <c r="H366" s="5"/>
     </row>
     <row r="367">
-      <c r="E367" s="6"/>
-      <c r="F367" s="5"/>
+      <c r="G367" s="6"/>
+      <c r="H367" s="5"/>
     </row>
     <row r="368">
-      <c r="E368" s="6"/>
-      <c r="F368" s="5"/>
+      <c r="G368" s="6"/>
+      <c r="H368" s="5"/>
     </row>
     <row r="369">
-      <c r="E369" s="6"/>
-      <c r="F369" s="5"/>
+      <c r="G369" s="6"/>
+      <c r="H369" s="5"/>
     </row>
     <row r="370">
-      <c r="E370" s="6"/>
-      <c r="F370" s="5"/>
+      <c r="G370" s="6"/>
+      <c r="H370" s="5"/>
     </row>
     <row r="371">
-      <c r="E371" s="6"/>
-      <c r="F371" s="5"/>
+      <c r="G371" s="6"/>
+      <c r="H371" s="5"/>
     </row>
     <row r="372">
-      <c r="E372" s="6"/>
-      <c r="F372" s="5"/>
+      <c r="G372" s="6"/>
+      <c r="H372" s="5"/>
     </row>
     <row r="373">
-      <c r="E373" s="6"/>
-      <c r="F373" s="5"/>
+      <c r="G373" s="6"/>
+      <c r="H373" s="5"/>
     </row>
     <row r="374">
-      <c r="E374" s="6"/>
-      <c r="F374" s="5"/>
+      <c r="G374" s="6"/>
+      <c r="H374" s="5"/>
     </row>
     <row r="375">
-      <c r="E375" s="6"/>
-      <c r="F375" s="5"/>
+      <c r="G375" s="6"/>
+      <c r="H375" s="5"/>
     </row>
     <row r="376">
-      <c r="E376" s="6"/>
-      <c r="F376" s="5"/>
+      <c r="G376" s="6"/>
+      <c r="H376" s="5"/>
     </row>
     <row r="377">
-      <c r="E377" s="6"/>
-      <c r="F377" s="5"/>
+      <c r="G377" s="6"/>
+      <c r="H377" s="5"/>
     </row>
     <row r="378">
-      <c r="E378" s="6"/>
-      <c r="F378" s="5"/>
+      <c r="G378" s="6"/>
+      <c r="H378" s="5"/>
     </row>
     <row r="379">
-      <c r="E379" s="6"/>
-      <c r="F379" s="5"/>
+      <c r="G379" s="6"/>
+      <c r="H379" s="5"/>
     </row>
     <row r="380">
-      <c r="E380" s="6"/>
-      <c r="F380" s="5"/>
+      <c r="G380" s="6"/>
+      <c r="H380" s="5"/>
     </row>
     <row r="381">
-      <c r="E381" s="6"/>
-      <c r="F381" s="5"/>
+      <c r="G381" s="6"/>
+      <c r="H381" s="5"/>
     </row>
     <row r="382">
-      <c r="E382" s="6"/>
-      <c r="F382" s="5"/>
+      <c r="G382" s="6"/>
+      <c r="H382" s="5"/>
     </row>
     <row r="383">
-      <c r="E383" s="6"/>
-      <c r="F383" s="5"/>
+      <c r="G383" s="6"/>
+      <c r="H383" s="5"/>
     </row>
     <row r="384">
-      <c r="E384" s="6"/>
-      <c r="F384" s="5"/>
+      <c r="G384" s="6"/>
+      <c r="H384" s="5"/>
     </row>
     <row r="385">
-      <c r="E385" s="6"/>
-      <c r="F385" s="5"/>
+      <c r="G385" s="6"/>
+      <c r="H385" s="5"/>
     </row>
     <row r="386">
-      <c r="E386" s="6"/>
-      <c r="F386" s="5"/>
+      <c r="G386" s="6"/>
+      <c r="H386" s="5"/>
     </row>
     <row r="387">
-      <c r="E387" s="6"/>
-      <c r="F387" s="5"/>
+      <c r="G387" s="6"/>
+      <c r="H387" s="5"/>
     </row>
     <row r="388">
-      <c r="E388" s="6"/>
-      <c r="F388" s="5"/>
+      <c r="G388" s="6"/>
+      <c r="H388" s="5"/>
     </row>
     <row r="389">
-      <c r="E389" s="6"/>
-      <c r="F389" s="5"/>
+      <c r="G389" s="6"/>
+      <c r="H389" s="5"/>
     </row>
     <row r="390">
-      <c r="E390" s="6"/>
-      <c r="F390" s="5"/>
+      <c r="G390" s="6"/>
+      <c r="H390" s="5"/>
     </row>
     <row r="391">
-      <c r="E391" s="6"/>
-      <c r="F391" s="5"/>
+      <c r="G391" s="6"/>
+      <c r="H391" s="5"/>
     </row>
     <row r="392">
-      <c r="E392" s="6"/>
-      <c r="F392" s="5"/>
+      <c r="G392" s="6"/>
+      <c r="H392" s="5"/>
     </row>
     <row r="393">
-      <c r="E393" s="6"/>
-      <c r="F393" s="5"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="5"/>
     </row>
     <row r="394">
-      <c r="E394" s="6"/>
-      <c r="F394" s="5"/>
+      <c r="G394" s="6"/>
+      <c r="H394" s="5"/>
     </row>
     <row r="395">
-      <c r="E395" s="6"/>
-      <c r="F395" s="5"/>
+      <c r="G395" s="6"/>
+      <c r="H395" s="5"/>
     </row>
     <row r="396">
-      <c r="E396" s="6"/>
-      <c r="F396" s="5"/>
+      <c r="G396" s="6"/>
+      <c r="H396" s="5"/>
     </row>
     <row r="397">
-      <c r="E397" s="6"/>
-      <c r="F397" s="5"/>
+      <c r="G397" s="6"/>
+      <c r="H397" s="5"/>
     </row>
     <row r="398">
-      <c r="E398" s="6"/>
-      <c r="F398" s="5"/>
+      <c r="G398" s="6"/>
+      <c r="H398" s="5"/>
     </row>
     <row r="399">
-      <c r="E399" s="6"/>
-      <c r="F399" s="5"/>
+      <c r="G399" s="6"/>
+      <c r="H399" s="5"/>
     </row>
     <row r="400">
-      <c r="E400" s="6"/>
-      <c r="F400" s="5"/>
+      <c r="G400" s="6"/>
+      <c r="H400" s="5"/>
     </row>
     <row r="401">
-      <c r="E401" s="6"/>
-      <c r="F401" s="5"/>
+      <c r="G401" s="6"/>
+      <c r="H401" s="5"/>
     </row>
     <row r="402">
-      <c r="E402" s="6"/>
-      <c r="F402" s="5"/>
+      <c r="G402" s="6"/>
+      <c r="H402" s="5"/>
     </row>
     <row r="403">
-      <c r="E403" s="6"/>
-      <c r="F403" s="5"/>
+      <c r="G403" s="6"/>
+      <c r="H403" s="5"/>
     </row>
     <row r="404">
-      <c r="E404" s="6"/>
-      <c r="F404" s="5"/>
+      <c r="G404" s="6"/>
+      <c r="H404" s="5"/>
     </row>
     <row r="405">
-      <c r="E405" s="6"/>
-      <c r="F405" s="5"/>
+      <c r="G405" s="6"/>
+      <c r="H405" s="5"/>
     </row>
     <row r="406">
-      <c r="E406" s="6"/>
-      <c r="F406" s="5"/>
+      <c r="G406" s="6"/>
+      <c r="H406" s="5"/>
     </row>
     <row r="407">
-      <c r="E407" s="6"/>
-      <c r="F407" s="5"/>
+      <c r="G407" s="6"/>
+      <c r="H407" s="5"/>
     </row>
     <row r="408">
-      <c r="E408" s="6"/>
-      <c r="F408" s="5"/>
+      <c r="G408" s="6"/>
+      <c r="H408" s="5"/>
     </row>
     <row r="409">
-      <c r="E409" s="6"/>
-      <c r="F409" s="5"/>
+      <c r="G409" s="6"/>
+      <c r="H409" s="5"/>
     </row>
     <row r="410">
-      <c r="E410" s="6"/>
-      <c r="F410" s="5"/>
+      <c r="G410" s="6"/>
+      <c r="H410" s="5"/>
     </row>
     <row r="411">
-      <c r="E411" s="6"/>
-      <c r="F411" s="5"/>
+      <c r="G411" s="6"/>
+      <c r="H411" s="5"/>
     </row>
     <row r="412">
-      <c r="E412" s="6"/>
-      <c r="F412" s="5"/>
+      <c r="G412" s="6"/>
+      <c r="H412" s="5"/>
     </row>
     <row r="413">
-      <c r="E413" s="6"/>
-      <c r="F413" s="5"/>
+      <c r="G413" s="6"/>
+      <c r="H413" s="5"/>
     </row>
     <row r="414">
-      <c r="E414" s="6"/>
-      <c r="F414" s="5"/>
+      <c r="G414" s="6"/>
+      <c r="H414" s="5"/>
     </row>
     <row r="415">
-      <c r="E415" s="6"/>
-      <c r="F415" s="5"/>
+      <c r="G415" s="6"/>
+      <c r="H415" s="5"/>
     </row>
     <row r="416">
-      <c r="E416" s="6"/>
-      <c r="F416" s="5"/>
+      <c r="G416" s="6"/>
+      <c r="H416" s="5"/>
     </row>
     <row r="417">
-      <c r="E417" s="6"/>
-      <c r="F417" s="5"/>
+      <c r="G417" s="6"/>
+      <c r="H417" s="5"/>
     </row>
     <row r="418">
-      <c r="E418" s="6"/>
-      <c r="F418" s="5"/>
+      <c r="G418" s="6"/>
+      <c r="H418" s="5"/>
     </row>
     <row r="419">
-      <c r="E419" s="6"/>
-      <c r="F419" s="5"/>
+      <c r="G419" s="6"/>
+      <c r="H419" s="5"/>
     </row>
     <row r="420">
-      <c r="E420" s="6"/>
-      <c r="F420" s="5"/>
+      <c r="G420" s="6"/>
+      <c r="H420" s="5"/>
     </row>
     <row r="421">
-      <c r="E421" s="6"/>
-      <c r="F421" s="5"/>
+      <c r="G421" s="6"/>
+      <c r="H421" s="5"/>
     </row>
     <row r="422">
-      <c r="E422" s="6"/>
-      <c r="F422" s="5"/>
+      <c r="G422" s="6"/>
+      <c r="H422" s="5"/>
     </row>
     <row r="423">
-      <c r="E423" s="6"/>
-      <c r="F423" s="5"/>
+      <c r="G423" s="6"/>
+      <c r="H423" s="5"/>
     </row>
     <row r="424">
-      <c r="E424" s="6"/>
-      <c r="F424" s="5"/>
+      <c r="G424" s="6"/>
+      <c r="H424" s="5"/>
     </row>
     <row r="425">
-      <c r="E425" s="6"/>
-      <c r="F425" s="5"/>
+      <c r="G425" s="6"/>
+      <c r="H425" s="5"/>
     </row>
     <row r="426">
-      <c r="E426" s="6"/>
-      <c r="F426" s="5"/>
+      <c r="G426" s="6"/>
+      <c r="H426" s="5"/>
     </row>
     <row r="427">
-      <c r="E427" s="6"/>
-      <c r="F427" s="5"/>
+      <c r="G427" s="6"/>
+      <c r="H427" s="5"/>
     </row>
     <row r="428">
-      <c r="E428" s="6"/>
-      <c r="F428" s="5"/>
+      <c r="G428" s="6"/>
+      <c r="H428" s="5"/>
     </row>
     <row r="429">
-      <c r="E429" s="6"/>
-      <c r="F429" s="5"/>
+      <c r="G429" s="6"/>
+      <c r="H429" s="5"/>
     </row>
     <row r="430">
-      <c r="E430" s="6"/>
-      <c r="F430" s="5"/>
+      <c r="G430" s="6"/>
+      <c r="H430" s="5"/>
     </row>
     <row r="431">
-      <c r="E431" s="6"/>
-      <c r="F431" s="5"/>
+      <c r="G431" s="6"/>
+      <c r="H431" s="5"/>
     </row>
     <row r="432">
-      <c r="E432" s="6"/>
-      <c r="F432" s="5"/>
+      <c r="G432" s="6"/>
+      <c r="H432" s="5"/>
     </row>
     <row r="433">
-      <c r="E433" s="6"/>
-      <c r="F433" s="5"/>
+      <c r="G433" s="6"/>
+      <c r="H433" s="5"/>
     </row>
     <row r="434">
-      <c r="E434" s="6"/>
-      <c r="F434" s="5"/>
+      <c r="G434" s="6"/>
+      <c r="H434" s="5"/>
     </row>
     <row r="435">
-      <c r="E435" s="6"/>
-      <c r="F435" s="5"/>
+      <c r="G435" s="6"/>
+      <c r="H435" s="5"/>
     </row>
     <row r="436">
-      <c r="E436" s="6"/>
-      <c r="F436" s="5"/>
+      <c r="G436" s="6"/>
+      <c r="H436" s="5"/>
     </row>
     <row r="437">
-      <c r="E437" s="6"/>
-      <c r="F437" s="5"/>
+      <c r="G437" s="6"/>
+      <c r="H437" s="5"/>
     </row>
     <row r="438">
-      <c r="E438" s="6"/>
-      <c r="F438" s="5"/>
+      <c r="G438" s="6"/>
+      <c r="H438" s="5"/>
     </row>
     <row r="439">
-      <c r="E439" s="6"/>
-      <c r="F439" s="5"/>
+      <c r="G439" s="6"/>
+      <c r="H439" s="5"/>
     </row>
     <row r="440">
-      <c r="E440" s="6"/>
-      <c r="F440" s="5"/>
+      <c r="G440" s="6"/>
+      <c r="H440" s="5"/>
     </row>
     <row r="441">
-      <c r="E441" s="6"/>
-      <c r="F441" s="5"/>
+      <c r="G441" s="6"/>
+      <c r="H441" s="5"/>
     </row>
     <row r="442">
-      <c r="E442" s="6"/>
-      <c r="F442" s="5"/>
+      <c r="G442" s="6"/>
+      <c r="H442" s="5"/>
     </row>
     <row r="443">
-      <c r="E443" s="6"/>
-      <c r="F443" s="5"/>
+      <c r="G443" s="6"/>
+      <c r="H443" s="5"/>
     </row>
     <row r="444">
-      <c r="E444" s="6"/>
-      <c r="F444" s="5"/>
+      <c r="G444" s="6"/>
+      <c r="H444" s="5"/>
     </row>
     <row r="445">
-      <c r="E445" s="6"/>
-      <c r="F445" s="5"/>
+      <c r="G445" s="6"/>
+      <c r="H445" s="5"/>
     </row>
     <row r="446">
-      <c r="E446" s="6"/>
-      <c r="F446" s="5"/>
+      <c r="G446" s="6"/>
+      <c r="H446" s="5"/>
     </row>
     <row r="447">
-      <c r="E447" s="6"/>
-      <c r="F447" s="5"/>
+      <c r="G447" s="6"/>
+      <c r="H447" s="5"/>
     </row>
     <row r="448">
-      <c r="E448" s="6"/>
-      <c r="F448" s="5"/>
+      <c r="G448" s="6"/>
+      <c r="H448" s="5"/>
     </row>
     <row r="449">
-      <c r="E449" s="6"/>
-      <c r="F449" s="5"/>
+      <c r="G449" s="6"/>
+      <c r="H449" s="5"/>
     </row>
     <row r="450">
-      <c r="E450" s="6"/>
-      <c r="F450" s="5"/>
+      <c r="G450" s="6"/>
+      <c r="H450" s="5"/>
     </row>
     <row r="451">
-      <c r="E451" s="6"/>
-      <c r="F451" s="5"/>
+      <c r="G451" s="6"/>
+      <c r="H451" s="5"/>
     </row>
     <row r="452">
-      <c r="E452" s="6"/>
-      <c r="F452" s="5"/>
+      <c r="G452" s="6"/>
+      <c r="H452" s="5"/>
     </row>
     <row r="453">
-      <c r="E453" s="6"/>
-      <c r="F453" s="5"/>
+      <c r="G453" s="6"/>
+      <c r="H453" s="5"/>
     </row>
     <row r="454">
-      <c r="E454" s="6"/>
-      <c r="F454" s="5"/>
+      <c r="G454" s="6"/>
+      <c r="H454" s="5"/>
     </row>
     <row r="455">
-      <c r="E455" s="6"/>
-      <c r="F455" s="5"/>
+      <c r="G455" s="6"/>
+      <c r="H455" s="5"/>
     </row>
     <row r="456">
-      <c r="E456" s="6"/>
-      <c r="F456" s="5"/>
+      <c r="G456" s="6"/>
+      <c r="H456" s="5"/>
     </row>
     <row r="457">
-      <c r="E457" s="6"/>
-      <c r="F457" s="5"/>
+      <c r="G457" s="6"/>
+      <c r="H457" s="5"/>
     </row>
     <row r="458">
-      <c r="E458" s="6"/>
-      <c r="F458" s="5"/>
+      <c r="G458" s="6"/>
+      <c r="H458" s="5"/>
     </row>
     <row r="459">
-      <c r="E459" s="6"/>
-      <c r="F459" s="5"/>
+      <c r="G459" s="6"/>
+      <c r="H459" s="5"/>
     </row>
     <row r="460">
-      <c r="E460" s="6"/>
-      <c r="F460" s="5"/>
+      <c r="G460" s="6"/>
+      <c r="H460" s="5"/>
     </row>
     <row r="461">
-      <c r="E461" s="6"/>
-      <c r="F461" s="5"/>
+      <c r="G461" s="6"/>
+      <c r="H461" s="5"/>
     </row>
     <row r="462">
-      <c r="E462" s="6"/>
-      <c r="F462" s="5"/>
+      <c r="G462" s="6"/>
+      <c r="H462" s="5"/>
     </row>
     <row r="463">
-      <c r="E463" s="6"/>
-      <c r="F463" s="5"/>
+      <c r="G463" s="6"/>
+      <c r="H463" s="5"/>
     </row>
     <row r="464">
-      <c r="E464" s="6"/>
-      <c r="F464" s="5"/>
+      <c r="G464" s="6"/>
+      <c r="H464" s="5"/>
     </row>
     <row r="465">
-      <c r="E465" s="6"/>
-      <c r="F465" s="5"/>
+      <c r="G465" s="6"/>
+      <c r="H465" s="5"/>
     </row>
     <row r="466">
-      <c r="E466" s="6"/>
-      <c r="F466" s="5"/>
+      <c r="G466" s="6"/>
+      <c r="H466" s="5"/>
     </row>
     <row r="467">
-      <c r="E467" s="6"/>
-      <c r="F467" s="5"/>
+      <c r="G467" s="6"/>
+      <c r="H467" s="5"/>
     </row>
     <row r="468">
-      <c r="E468" s="6"/>
-      <c r="F468" s="5"/>
+      <c r="G468" s="6"/>
+      <c r="H468" s="5"/>
     </row>
     <row r="469">
-      <c r="E469" s="6"/>
-      <c r="F469" s="5"/>
+      <c r="G469" s="6"/>
+      <c r="H469" s="5"/>
     </row>
     <row r="470">
-      <c r="E470" s="6"/>
-      <c r="F470" s="5"/>
+      <c r="G470" s="6"/>
+      <c r="H470" s="5"/>
     </row>
     <row r="471">
-      <c r="E471" s="6"/>
-      <c r="F471" s="5"/>
+      <c r="G471" s="6"/>
+      <c r="H471" s="5"/>
     </row>
     <row r="472">
-      <c r="E472" s="6"/>
-      <c r="F472" s="5"/>
+      <c r="G472" s="6"/>
+      <c r="H472" s="5"/>
     </row>
     <row r="473">
-      <c r="E473" s="6"/>
-      <c r="F473" s="5"/>
+      <c r="G473" s="6"/>
+      <c r="H473" s="5"/>
     </row>
     <row r="474">
-      <c r="E474" s="6"/>
-      <c r="F474" s="5"/>
+      <c r="G474" s="6"/>
+      <c r="H474" s="5"/>
     </row>
     <row r="475">
-      <c r="E475" s="6"/>
-      <c r="F475" s="5"/>
+      <c r="G475" s="6"/>
+      <c r="H475" s="5"/>
     </row>
     <row r="476">
-      <c r="E476" s="6"/>
-      <c r="F476" s="5"/>
+      <c r="G476" s="6"/>
+      <c r="H476" s="5"/>
     </row>
     <row r="477">
-      <c r="E477" s="6"/>
-      <c r="F477" s="5"/>
+      <c r="G477" s="6"/>
+      <c r="H477" s="5"/>
     </row>
     <row r="478">
-      <c r="E478" s="6"/>
-      <c r="F478" s="5"/>
+      <c r="G478" s="6"/>
+      <c r="H478" s="5"/>
     </row>
     <row r="479">
-      <c r="E479" s="6"/>
-      <c r="F479" s="5"/>
+      <c r="G479" s="6"/>
+      <c r="H479" s="5"/>
     </row>
     <row r="480">
-      <c r="E480" s="6"/>
-      <c r="F480" s="5"/>
+      <c r="G480" s="6"/>
+      <c r="H480" s="5"/>
     </row>
     <row r="481">
-      <c r="E481" s="6"/>
-      <c r="F481" s="5"/>
+      <c r="G481" s="6"/>
+      <c r="H481" s="5"/>
     </row>
     <row r="482">
-      <c r="E482" s="6"/>
-      <c r="F482" s="5"/>
+      <c r="G482" s="6"/>
+      <c r="H482" s="5"/>
     </row>
     <row r="483">
-      <c r="E483" s="6"/>
-      <c r="F483" s="5"/>
+      <c r="G483" s="6"/>
+      <c r="H483" s="5"/>
     </row>
     <row r="484">
-      <c r="E484" s="6"/>
-      <c r="F484" s="5"/>
+      <c r="G484" s="6"/>
+      <c r="H484" s="5"/>
     </row>
     <row r="485">
-      <c r="E485" s="6"/>
-      <c r="F485" s="5"/>
+      <c r="G485" s="6"/>
+      <c r="H485" s="5"/>
     </row>
     <row r="486">
-      <c r="E486" s="6"/>
-      <c r="F486" s="5"/>
+      <c r="G486" s="6"/>
+      <c r="H486" s="5"/>
     </row>
     <row r="487">
-      <c r="E487" s="6"/>
-      <c r="F487" s="5"/>
+      <c r="G487" s="6"/>
+      <c r="H487" s="5"/>
     </row>
     <row r="488">
-      <c r="E488" s="6"/>
-      <c r="F488" s="5"/>
+      <c r="G488" s="6"/>
+      <c r="H488" s="5"/>
     </row>
     <row r="489">
-      <c r="E489" s="6"/>
-      <c r="F489" s="5"/>
+      <c r="G489" s="6"/>
+      <c r="H489" s="5"/>
     </row>
     <row r="490">
-      <c r="E490" s="6"/>
-      <c r="F490" s="5"/>
+      <c r="G490" s="6"/>
+      <c r="H490" s="5"/>
     </row>
     <row r="491">
-      <c r="E491" s="6"/>
-      <c r="F491" s="5"/>
+      <c r="G491" s="6"/>
+      <c r="H491" s="5"/>
     </row>
     <row r="492">
-      <c r="E492" s="6"/>
-      <c r="F492" s="5"/>
+      <c r="G492" s="6"/>
+      <c r="H492" s="5"/>
     </row>
     <row r="493">
-      <c r="E493" s="6"/>
-      <c r="F493" s="5"/>
+      <c r="G493" s="6"/>
+      <c r="H493" s="5"/>
     </row>
     <row r="494">
-      <c r="E494" s="6"/>
-      <c r="F494" s="5"/>
+      <c r="G494" s="6"/>
+      <c r="H494" s="5"/>
     </row>
     <row r="495">
-      <c r="E495" s="6"/>
-      <c r="F495" s="5"/>
+      <c r="G495" s="6"/>
+      <c r="H495" s="5"/>
     </row>
     <row r="496">
-      <c r="E496" s="6"/>
-      <c r="F496" s="5"/>
+      <c r="G496" s="6"/>
+      <c r="H496" s="5"/>
     </row>
     <row r="497">
-      <c r="E497" s="6"/>
-      <c r="F497" s="5"/>
+      <c r="G497" s="6"/>
+      <c r="H497" s="5"/>
     </row>
     <row r="498">
-      <c r="E498" s="6"/>
-      <c r="F498" s="5"/>
+      <c r="G498" s="6"/>
+      <c r="H498" s="5"/>
     </row>
     <row r="499">
-      <c r="E499" s="6"/>
-      <c r="F499" s="5"/>
+      <c r="G499" s="6"/>
+      <c r="H499" s="5"/>
     </row>
     <row r="500">
-      <c r="E500" s="6"/>
-      <c r="F500" s="5"/>
+      <c r="G500" s="6"/>
+      <c r="H500" s="5"/>
     </row>
     <row r="501">
-      <c r="E501" s="6"/>
-      <c r="F501" s="5"/>
+      <c r="G501" s="6"/>
+      <c r="H501" s="5"/>
     </row>
     <row r="502">
-      <c r="E502" s="6"/>
-      <c r="F502" s="5"/>
+      <c r="G502" s="6"/>
+      <c r="H502" s="5"/>
     </row>
     <row r="503">
-      <c r="E503" s="6"/>
-      <c r="F503" s="5"/>
+      <c r="G503" s="6"/>
+      <c r="H503" s="5"/>
     </row>
     <row r="504">
-      <c r="E504" s="6"/>
-      <c r="F504" s="5"/>
+      <c r="G504" s="6"/>
+      <c r="H504" s="5"/>
     </row>
     <row r="505">
-      <c r="E505" s="6"/>
-      <c r="F505" s="5"/>
+      <c r="G505" s="6"/>
+      <c r="H505" s="5"/>
     </row>
     <row r="506">
-      <c r="E506" s="6"/>
-      <c r="F506" s="5"/>
+      <c r="G506" s="6"/>
+      <c r="H506" s="5"/>
     </row>
     <row r="507">
-      <c r="E507" s="6"/>
-      <c r="F507" s="5"/>
+      <c r="G507" s="6"/>
+      <c r="H507" s="5"/>
     </row>
     <row r="508">
-      <c r="E508" s="6"/>
-      <c r="F508" s="5"/>
+      <c r="G508" s="6"/>
+      <c r="H508" s="5"/>
     </row>
     <row r="509">
-      <c r="E509" s="6"/>
-      <c r="F509" s="5"/>
+      <c r="G509" s="6"/>
+      <c r="H509" s="5"/>
     </row>
     <row r="510">
-      <c r="E510" s="6"/>
-      <c r="F510" s="5"/>
+      <c r="G510" s="6"/>
+      <c r="H510" s="5"/>
     </row>
     <row r="511">
-      <c r="E511" s="6"/>
-      <c r="F511" s="5"/>
+      <c r="G511" s="6"/>
+      <c r="H511" s="5"/>
     </row>
     <row r="512">
-      <c r="E512" s="6"/>
-      <c r="F512" s="5"/>
+      <c r="G512" s="6"/>
+      <c r="H512" s="5"/>
     </row>
     <row r="513">
-      <c r="E513" s="6"/>
-      <c r="F513" s="5"/>
+      <c r="G513" s="6"/>
+      <c r="H513" s="5"/>
     </row>
     <row r="514">
-      <c r="E514" s="6"/>
-      <c r="F514" s="5"/>
+      <c r="G514" s="6"/>
+      <c r="H514" s="5"/>
     </row>
     <row r="515">
-      <c r="E515" s="6"/>
-      <c r="F515" s="5"/>
+      <c r="G515" s="6"/>
+      <c r="H515" s="5"/>
     </row>
     <row r="516">
-      <c r="E516" s="6"/>
-      <c r="F516" s="5"/>
+      <c r="G516" s="6"/>
+      <c r="H516" s="5"/>
     </row>
     <row r="517">
-      <c r="E517" s="6"/>
-      <c r="F517" s="5"/>
+      <c r="G517" s="6"/>
+      <c r="H517" s="5"/>
     </row>
     <row r="518">
-      <c r="E518" s="6"/>
-      <c r="F518" s="5"/>
+      <c r="G518" s="6"/>
+      <c r="H518" s="5"/>
     </row>
     <row r="519">
-      <c r="E519" s="6"/>
-      <c r="F519" s="5"/>
+      <c r="G519" s="6"/>
+      <c r="H519" s="5"/>
     </row>
     <row r="520">
-      <c r="E520" s="6"/>
-      <c r="F520" s="5"/>
+      <c r="G520" s="6"/>
+      <c r="H520" s="5"/>
     </row>
     <row r="521">
-      <c r="E521" s="6"/>
-      <c r="F521" s="5"/>
+      <c r="G521" s="6"/>
+      <c r="H521" s="5"/>
     </row>
     <row r="522">
-      <c r="E522" s="6"/>
-      <c r="F522" s="5"/>
+      <c r="G522" s="6"/>
+      <c r="H522" s="5"/>
     </row>
     <row r="523">
-      <c r="E523" s="6"/>
-      <c r="F523" s="5"/>
+      <c r="G523" s="6"/>
+      <c r="H523" s="5"/>
     </row>
     <row r="524">
-      <c r="E524" s="6"/>
-      <c r="F524" s="5"/>
+      <c r="G524" s="6"/>
+      <c r="H524" s="5"/>
     </row>
     <row r="525">
-      <c r="E525" s="6"/>
-      <c r="F525" s="5"/>
+      <c r="G525" s="6"/>
+      <c r="H525" s="5"/>
     </row>
     <row r="526">
-      <c r="E526" s="6"/>
-      <c r="F526" s="5"/>
+      <c r="G526" s="6"/>
+      <c r="H526" s="5"/>
     </row>
     <row r="527">
-      <c r="E527" s="6"/>
-      <c r="F527" s="5"/>
+      <c r="G527" s="6"/>
+      <c r="H527" s="5"/>
     </row>
     <row r="528">
-      <c r="E528" s="6"/>
-      <c r="F528" s="5"/>
+      <c r="G528" s="6"/>
+      <c r="H528" s="5"/>
     </row>
     <row r="529">
-      <c r="E529" s="6"/>
-      <c r="F529" s="5"/>
+      <c r="G529" s="6"/>
+      <c r="H529" s="5"/>
     </row>
     <row r="530">
-      <c r="E530" s="6"/>
-      <c r="F530" s="5"/>
+      <c r="G530" s="6"/>
+      <c r="H530" s="5"/>
     </row>
     <row r="531">
-      <c r="E531" s="6"/>
-      <c r="F531" s="5"/>
+      <c r="G531" s="6"/>
+      <c r="H531" s="5"/>
     </row>
     <row r="532">
-      <c r="E532" s="6"/>
-      <c r="F532" s="5"/>
+      <c r="G532" s="6"/>
+      <c r="H532" s="5"/>
     </row>
     <row r="533">
-      <c r="E533" s="6"/>
-      <c r="F533" s="5"/>
+      <c r="G533" s="6"/>
+      <c r="H533" s="5"/>
     </row>
     <row r="534">
-      <c r="E534" s="6"/>
-      <c r="F534" s="5"/>
+      <c r="G534" s="6"/>
+      <c r="H534" s="5"/>
     </row>
     <row r="535">
-      <c r="E535" s="6"/>
-      <c r="F535" s="5"/>
+      <c r="G535" s="6"/>
+      <c r="H535" s="5"/>
     </row>
     <row r="536">
-      <c r="E536" s="6"/>
-      <c r="F536" s="5"/>
+      <c r="G536" s="6"/>
+      <c r="H536" s="5"/>
     </row>
     <row r="537">
-      <c r="E537" s="6"/>
-      <c r="F537" s="5"/>
+      <c r="G537" s="6"/>
+      <c r="H537" s="5"/>
     </row>
     <row r="538">
-      <c r="E538" s="6"/>
-      <c r="F538" s="5"/>
+      <c r="G538" s="6"/>
+      <c r="H538" s="5"/>
     </row>
     <row r="539">
-      <c r="E539" s="6"/>
-      <c r="F539" s="5"/>
+      <c r="G539" s="6"/>
+      <c r="H539" s="5"/>
     </row>
     <row r="540">
-      <c r="E540" s="6"/>
-      <c r="F540" s="5"/>
+      <c r="G540" s="6"/>
+      <c r="H540" s="5"/>
     </row>
     <row r="541">
-      <c r="E541" s="6"/>
-      <c r="F541" s="5"/>
+      <c r="G541" s="6"/>
+      <c r="H541" s="5"/>
     </row>
     <row r="542">
-      <c r="E542" s="6"/>
-      <c r="F542" s="5"/>
+      <c r="G542" s="6"/>
+      <c r="H542" s="5"/>
     </row>
     <row r="543">
-      <c r="E543" s="6"/>
-      <c r="F543" s="5"/>
+      <c r="G543" s="6"/>
+      <c r="H543" s="5"/>
     </row>
     <row r="544">
-      <c r="E544" s="6"/>
-      <c r="F544" s="5"/>
+      <c r="G544" s="6"/>
+      <c r="H544" s="5"/>
     </row>
     <row r="545">
-      <c r="E545" s="6"/>
-      <c r="F545" s="5"/>
+      <c r="G545" s="6"/>
+      <c r="H545" s="5"/>
     </row>
     <row r="546">
-      <c r="E546" s="6"/>
-      <c r="F546" s="5"/>
+      <c r="G546" s="6"/>
+      <c r="H546" s="5"/>
     </row>
     <row r="547">
-      <c r="E547" s="6"/>
-      <c r="F547" s="5"/>
+      <c r="G547" s="6"/>
+      <c r="H547" s="5"/>
     </row>
     <row r="548">
-      <c r="E548" s="6"/>
-      <c r="F548" s="5"/>
+      <c r="G548" s="6"/>
+      <c r="H548" s="5"/>
     </row>
     <row r="549">
-      <c r="E549" s="6"/>
-      <c r="F549" s="5"/>
+      <c r="G549" s="6"/>
+      <c r="H549" s="5"/>
     </row>
     <row r="550">
-      <c r="E550" s="6"/>
-      <c r="F550" s="5"/>
+      <c r="G550" s="6"/>
+      <c r="H550" s="5"/>
     </row>
     <row r="551">
-      <c r="E551" s="6"/>
-      <c r="F551" s="5"/>
+      <c r="G551" s="6"/>
+      <c r="H551" s="5"/>
     </row>
     <row r="552">
-      <c r="E552" s="6"/>
-      <c r="F552" s="5"/>
+      <c r="G552" s="6"/>
+      <c r="H552" s="5"/>
     </row>
     <row r="553">
-      <c r="E553" s="6"/>
-      <c r="F553" s="5"/>
+      <c r="G553" s="6"/>
+      <c r="H553" s="5"/>
     </row>
     <row r="554">
-      <c r="E554" s="6"/>
-      <c r="F554" s="5"/>
+      <c r="G554" s="6"/>
+      <c r="H554" s="5"/>
     </row>
     <row r="555">
-      <c r="E555" s="6"/>
-      <c r="F555" s="5"/>
+      <c r="G555" s="6"/>
+      <c r="H555" s="5"/>
     </row>
     <row r="556">
-      <c r="E556" s="6"/>
-      <c r="F556" s="5"/>
+      <c r="G556" s="6"/>
+      <c r="H556" s="5"/>
     </row>
     <row r="557">
-      <c r="E557" s="6"/>
-      <c r="F557" s="5"/>
+      <c r="G557" s="6"/>
+      <c r="H557" s="5"/>
     </row>
     <row r="558">
-      <c r="E558" s="6"/>
-      <c r="F558" s="5"/>
+      <c r="G558" s="6"/>
+      <c r="H558" s="5"/>
     </row>
     <row r="559">
-      <c r="E559" s="6"/>
-      <c r="F559" s="5"/>
+      <c r="G559" s="6"/>
+      <c r="H559" s="5"/>
     </row>
     <row r="560">
-      <c r="E560" s="6"/>
-      <c r="F560" s="5"/>
+      <c r="G560" s="6"/>
+      <c r="H560" s="5"/>
     </row>
     <row r="561">
-      <c r="E561" s="6"/>
-      <c r="F561" s="5"/>
+      <c r="G561" s="6"/>
+      <c r="H561" s="5"/>
     </row>
     <row r="562">
-      <c r="E562" s="6"/>
-      <c r="F562" s="5"/>
+      <c r="G562" s="6"/>
+      <c r="H562" s="5"/>
     </row>
     <row r="563">
-      <c r="E563" s="6"/>
-      <c r="F563" s="5"/>
+      <c r="G563" s="6"/>
+      <c r="H563" s="5"/>
     </row>
     <row r="564">
-      <c r="E564" s="6"/>
-      <c r="F564" s="5"/>
+      <c r="G564" s="6"/>
+      <c r="H564" s="5"/>
     </row>
     <row r="565">
-      <c r="E565" s="6"/>
-      <c r="F565" s="5"/>
+      <c r="G565" s="6"/>
+      <c r="H565" s="5"/>
     </row>
     <row r="566">
-      <c r="E566" s="6"/>
-      <c r="F566" s="5"/>
+      <c r="G566" s="6"/>
+      <c r="H566" s="5"/>
     </row>
     <row r="567">
-      <c r="E567" s="6"/>
-      <c r="F567" s="5"/>
+      <c r="G567" s="6"/>
+      <c r="H567" s="5"/>
     </row>
     <row r="568">
-      <c r="E568" s="6"/>
-      <c r="F568" s="5"/>
+      <c r="G568" s="6"/>
+      <c r="H568" s="5"/>
     </row>
     <row r="569">
-      <c r="E569" s="6"/>
-      <c r="F569" s="5"/>
+      <c r="G569" s="6"/>
+      <c r="H569" s="5"/>
     </row>
     <row r="570">
-      <c r="E570" s="6"/>
-      <c r="F570" s="5"/>
+      <c r="G570" s="6"/>
+      <c r="H570" s="5"/>
     </row>
     <row r="571">
-      <c r="E571" s="6"/>
-      <c r="F571" s="5"/>
+      <c r="G571" s="6"/>
+      <c r="H571" s="5"/>
     </row>
     <row r="572">
-      <c r="E572" s="6"/>
-      <c r="F572" s="5"/>
+      <c r="G572" s="6"/>
+      <c r="H572" s="5"/>
     </row>
     <row r="573">
-      <c r="E573" s="6"/>
-      <c r="F573" s="5"/>
+      <c r="G573" s="6"/>
+      <c r="H573" s="5"/>
     </row>
     <row r="574">
-      <c r="E574" s="6"/>
-      <c r="F574" s="5"/>
+      <c r="G574" s="6"/>
+      <c r="H574" s="5"/>
     </row>
     <row r="575">
-      <c r="E575" s="6"/>
-      <c r="F575" s="5"/>
+      <c r="G575" s="6"/>
+      <c r="H575" s="5"/>
     </row>
     <row r="576">
-      <c r="E576" s="6"/>
-      <c r="F576" s="5"/>
+      <c r="G576" s="6"/>
+      <c r="H576" s="5"/>
     </row>
     <row r="577">
-      <c r="E577" s="6"/>
-      <c r="F577" s="5"/>
+      <c r="G577" s="6"/>
+      <c r="H577" s="5"/>
     </row>
     <row r="578">
-      <c r="E578" s="6"/>
-      <c r="F578" s="5"/>
+      <c r="G578" s="6"/>
+      <c r="H578" s="5"/>
     </row>
     <row r="579">
-      <c r="E579" s="6"/>
-      <c r="F579" s="5"/>
+      <c r="G579" s="6"/>
+      <c r="H579" s="5"/>
     </row>
     <row r="580">
-      <c r="E580" s="6"/>
-      <c r="F580" s="5"/>
+      <c r="G580" s="6"/>
+      <c r="H580" s="5"/>
     </row>
     <row r="581">
-      <c r="E581" s="6"/>
-      <c r="F581" s="5"/>
+      <c r="G581" s="6"/>
+      <c r="H581" s="5"/>
     </row>
     <row r="582">
-      <c r="E582" s="6"/>
-      <c r="F582" s="5"/>
+      <c r="G582" s="6"/>
+      <c r="H582" s="5"/>
     </row>
     <row r="583">
-      <c r="E583" s="6"/>
-      <c r="F583" s="5"/>
+      <c r="G583" s="6"/>
+      <c r="H583" s="5"/>
     </row>
     <row r="584">
-      <c r="E584" s="6"/>
-      <c r="F584" s="5"/>
+      <c r="G584" s="6"/>
+      <c r="H584" s="5"/>
     </row>
     <row r="585">
-      <c r="E585" s="6"/>
-      <c r="F585" s="5"/>
+      <c r="G585" s="6"/>
+      <c r="H585" s="5"/>
     </row>
     <row r="586">
-      <c r="E586" s="6"/>
-      <c r="F586" s="5"/>
+      <c r="G586" s="6"/>
+      <c r="H586" s="5"/>
     </row>
     <row r="587">
-      <c r="E587" s="6"/>
-      <c r="F587" s="5"/>
+      <c r="G587" s="6"/>
+      <c r="H587" s="5"/>
     </row>
     <row r="588">
-      <c r="E588" s="6"/>
-      <c r="F588" s="5"/>
+      <c r="G588" s="6"/>
+      <c r="H588" s="5"/>
     </row>
     <row r="589">
-      <c r="E589" s="6"/>
-      <c r="F589" s="5"/>
+      <c r="G589" s="6"/>
+      <c r="H589" s="5"/>
     </row>
     <row r="590">
-      <c r="E590" s="6"/>
-      <c r="F590" s="5"/>
+      <c r="G590" s="6"/>
+      <c r="H590" s="5"/>
     </row>
     <row r="591">
-      <c r="E591" s="6"/>
-      <c r="F591" s="5"/>
+      <c r="G591" s="6"/>
+      <c r="H591" s="5"/>
     </row>
     <row r="592">
-      <c r="E592" s="6"/>
-      <c r="F592" s="5"/>
+      <c r="G592" s="6"/>
+      <c r="H592" s="5"/>
     </row>
     <row r="593">
-      <c r="E593" s="6"/>
-      <c r="F593" s="5"/>
+      <c r="G593" s="6"/>
+      <c r="H593" s="5"/>
     </row>
     <row r="594">
-      <c r="E594" s="6"/>
-      <c r="F594" s="5"/>
+      <c r="G594" s="6"/>
+      <c r="H594" s="5"/>
     </row>
     <row r="595">
-      <c r="E595" s="6"/>
-      <c r="F595" s="5"/>
+      <c r="G595" s="6"/>
+      <c r="H595" s="5"/>
     </row>
     <row r="596">
-      <c r="E596" s="6"/>
-      <c r="F596" s="5"/>
+      <c r="G596" s="6"/>
+      <c r="H596" s="5"/>
     </row>
     <row r="597">
-      <c r="E597" s="6"/>
-      <c r="F597" s="5"/>
+      <c r="G597" s="6"/>
+      <c r="H597" s="5"/>
     </row>
     <row r="598">
-      <c r="E598" s="6"/>
-      <c r="F598" s="5"/>
+      <c r="G598" s="6"/>
+      <c r="H598" s="5"/>
     </row>
     <row r="599">
-      <c r="E599" s="6"/>
-      <c r="F599" s="5"/>
+      <c r="G599" s="6"/>
+      <c r="H599" s="5"/>
     </row>
     <row r="600">
-      <c r="E600" s="6"/>
-      <c r="F600" s="5"/>
+      <c r="G600" s="6"/>
+      <c r="H600" s="5"/>
     </row>
     <row r="601">
-      <c r="E601" s="6"/>
-      <c r="F601" s="5"/>
+      <c r="G601" s="6"/>
+      <c r="H601" s="5"/>
     </row>
     <row r="602">
-      <c r="E602" s="6"/>
-      <c r="F602" s="5"/>
+      <c r="G602" s="6"/>
+      <c r="H602" s="5"/>
     </row>
     <row r="603">
-      <c r="E603" s="6"/>
-      <c r="F603" s="5"/>
+      <c r="G603" s="6"/>
+      <c r="H603" s="5"/>
     </row>
     <row r="604">
-      <c r="E604" s="6"/>
-      <c r="F604" s="5"/>
+      <c r="G604" s="6"/>
+      <c r="H604" s="5"/>
     </row>
     <row r="605">
-      <c r="E605" s="6"/>
-      <c r="F605" s="5"/>
+      <c r="G605" s="6"/>
+      <c r="H605" s="5"/>
     </row>
     <row r="606">
-      <c r="E606" s="6"/>
-      <c r="F606" s="5"/>
+      <c r="G606" s="6"/>
+      <c r="H606" s="5"/>
     </row>
     <row r="607">
-      <c r="E607" s="6"/>
-      <c r="F607" s="5"/>
+      <c r="G607" s="6"/>
+      <c r="H607" s="5"/>
     </row>
     <row r="608">
-      <c r="E608" s="6"/>
-      <c r="F608" s="5"/>
+      <c r="G608" s="6"/>
+      <c r="H608" s="5"/>
     </row>
     <row r="609">
-      <c r="E609" s="6"/>
-      <c r="F609" s="5"/>
+      <c r="G609" s="6"/>
+      <c r="H609" s="5"/>
     </row>
     <row r="610">
-      <c r="E610" s="6"/>
-      <c r="F610" s="5"/>
+      <c r="G610" s="6"/>
+      <c r="H610" s="5"/>
     </row>
     <row r="611">
-      <c r="E611" s="6"/>
-      <c r="F611" s="5"/>
+      <c r="G611" s="6"/>
+      <c r="H611" s="5"/>
     </row>
     <row r="612">
-      <c r="E612" s="6"/>
-      <c r="F612" s="5"/>
+      <c r="G612" s="6"/>
+      <c r="H612" s="5"/>
     </row>
     <row r="613">
-      <c r="E613" s="6"/>
-      <c r="F613" s="5"/>
+      <c r="G613" s="6"/>
+      <c r="H613" s="5"/>
     </row>
     <row r="614">
-      <c r="E614" s="6"/>
-      <c r="F614" s="5"/>
+      <c r="G614" s="6"/>
+      <c r="H614" s="5"/>
     </row>
     <row r="615">
-      <c r="E615" s="6"/>
-      <c r="F615" s="5"/>
+      <c r="G615" s="6"/>
+      <c r="H615" s="5"/>
     </row>
     <row r="616">
-      <c r="E616" s="6"/>
-      <c r="F616" s="5"/>
+      <c r="G616" s="6"/>
+      <c r="H616" s="5"/>
     </row>
     <row r="617">
-      <c r="E617" s="6"/>
-      <c r="F617" s="5"/>
+      <c r="G617" s="6"/>
+      <c r="H617" s="5"/>
     </row>
     <row r="618">
-      <c r="E618" s="6"/>
-      <c r="F618" s="5"/>
+      <c r="G618" s="6"/>
+      <c r="H618" s="5"/>
     </row>
     <row r="619">
-      <c r="E619" s="6"/>
-      <c r="F619" s="5"/>
+      <c r="G619" s="6"/>
+      <c r="H619" s="5"/>
     </row>
     <row r="620">
-      <c r="E620" s="6"/>
-      <c r="F620" s="5"/>
+      <c r="G620" s="6"/>
+      <c r="H620" s="5"/>
     </row>
     <row r="621">
-      <c r="E621" s="6"/>
-      <c r="F621" s="5"/>
+      <c r="G621" s="6"/>
+      <c r="H621" s="5"/>
     </row>
     <row r="622">
-      <c r="E622" s="6"/>
-      <c r="F622" s="5"/>
+      <c r="G622" s="6"/>
+      <c r="H622" s="5"/>
     </row>
     <row r="623">
-      <c r="E623" s="6"/>
-      <c r="F623" s="5"/>
+      <c r="G623" s="6"/>
+      <c r="H623" s="5"/>
     </row>
     <row r="624">
-      <c r="E624" s="6"/>
-      <c r="F624" s="5"/>
+      <c r="G624" s="6"/>
+      <c r="H624" s="5"/>
     </row>
     <row r="625">
-      <c r="E625" s="6"/>
-      <c r="F625" s="5"/>
+      <c r="G625" s="6"/>
+      <c r="H625" s="5"/>
     </row>
     <row r="626">
-      <c r="E626" s="6"/>
-      <c r="F626" s="5"/>
+      <c r="G626" s="6"/>
+      <c r="H626" s="5"/>
     </row>
     <row r="627">
-      <c r="E627" s="6"/>
-      <c r="F627" s="5"/>
+      <c r="G627" s="6"/>
+      <c r="H627" s="5"/>
     </row>
     <row r="628">
-      <c r="E628" s="6"/>
-      <c r="F628" s="5"/>
+      <c r="G628" s="6"/>
+      <c r="H628" s="5"/>
     </row>
     <row r="629">
-      <c r="E629" s="6"/>
-      <c r="F629" s="5"/>
+      <c r="G629" s="6"/>
+      <c r="H629" s="5"/>
     </row>
     <row r="630">
-      <c r="E630" s="6"/>
-      <c r="F630" s="5"/>
+      <c r="G630" s="6"/>
+      <c r="H630" s="5"/>
     </row>
     <row r="631">
-      <c r="E631" s="6"/>
-      <c r="F631" s="5"/>
+      <c r="G631" s="6"/>
+      <c r="H631" s="5"/>
     </row>
     <row r="632">
-      <c r="E632" s="6"/>
-      <c r="F632" s="5"/>
+      <c r="G632" s="6"/>
+      <c r="H632" s="5"/>
     </row>
     <row r="633">
-      <c r="E633" s="6"/>
-      <c r="F633" s="5"/>
+      <c r="G633" s="6"/>
+      <c r="H633" s="5"/>
     </row>
     <row r="634">
-      <c r="E634" s="6"/>
-      <c r="F634" s="5"/>
+      <c r="G634" s="6"/>
+      <c r="H634" s="5"/>
     </row>
     <row r="635">
-      <c r="E635" s="6"/>
-      <c r="F635" s="5"/>
+      <c r="G635" s="6"/>
+      <c r="H635" s="5"/>
     </row>
     <row r="636">
-      <c r="E636" s="6"/>
-      <c r="F636" s="5"/>
+      <c r="G636" s="6"/>
+      <c r="H636" s="5"/>
     </row>
     <row r="637">
-      <c r="E637" s="6"/>
-      <c r="F637" s="5"/>
+      <c r="G637" s="6"/>
+      <c r="H637" s="5"/>
     </row>
     <row r="638">
-      <c r="E638" s="6"/>
-      <c r="F638" s="5"/>
+      <c r="G638" s="6"/>
+      <c r="H638" s="5"/>
     </row>
     <row r="639">
-      <c r="E639" s="6"/>
-      <c r="F639" s="5"/>
+      <c r="G639" s="6"/>
+      <c r="H639" s="5"/>
     </row>
     <row r="640">
-      <c r="E640" s="6"/>
-      <c r="F640" s="5"/>
+      <c r="G640" s="6"/>
+      <c r="H640" s="5"/>
     </row>
     <row r="641">
-      <c r="E641" s="6"/>
-      <c r="F641" s="5"/>
+      <c r="G641" s="6"/>
+      <c r="H641" s="5"/>
     </row>
     <row r="642">
-      <c r="E642" s="6"/>
-      <c r="F642" s="5"/>
+      <c r="G642" s="6"/>
+      <c r="H642" s="5"/>
     </row>
     <row r="643">
-      <c r="E643" s="6"/>
-      <c r="F643" s="5"/>
+      <c r="G643" s="6"/>
+      <c r="H643" s="5"/>
     </row>
     <row r="644">
-      <c r="E644" s="6"/>
-      <c r="F644" s="5"/>
+      <c r="G644" s="6"/>
+      <c r="H644" s="5"/>
     </row>
     <row r="645">
-      <c r="E645" s="6"/>
-      <c r="F645" s="5"/>
+      <c r="G645" s="6"/>
+      <c r="H645" s="5"/>
     </row>
     <row r="646">
-      <c r="E646" s="6"/>
-      <c r="F646" s="5"/>
+      <c r="G646" s="6"/>
+      <c r="H646" s="5"/>
     </row>
     <row r="647">
-      <c r="E647" s="6"/>
-      <c r="F647" s="5"/>
+      <c r="G647" s="6"/>
+      <c r="H647" s="5"/>
     </row>
     <row r="648">
-      <c r="E648" s="6"/>
-      <c r="F648" s="5"/>
+      <c r="G648" s="6"/>
+      <c r="H648" s="5"/>
     </row>
     <row r="649">
-      <c r="E649" s="6"/>
-      <c r="F649" s="5"/>
+      <c r="G649" s="6"/>
+      <c r="H649" s="5"/>
     </row>
     <row r="650">
-      <c r="E650" s="6"/>
-      <c r="F650" s="5"/>
+      <c r="G650" s="6"/>
+      <c r="H650" s="5"/>
     </row>
     <row r="651">
-      <c r="E651" s="6"/>
-      <c r="F651" s="5"/>
+      <c r="G651" s="6"/>
+      <c r="H651" s="5"/>
     </row>
     <row r="652">
-      <c r="E652" s="6"/>
-      <c r="F652" s="5"/>
+      <c r="G652" s="6"/>
+      <c r="H652" s="5"/>
     </row>
     <row r="653">
-      <c r="E653" s="6"/>
-      <c r="F653" s="5"/>
+      <c r="G653" s="6"/>
+      <c r="H653" s="5"/>
     </row>
     <row r="654">
-      <c r="E654" s="6"/>
-      <c r="F654" s="5"/>
+      <c r="G654" s="6"/>
+      <c r="H654" s="5"/>
     </row>
     <row r="655">
-      <c r="E655" s="6"/>
-      <c r="F655" s="5"/>
+      <c r="G655" s="6"/>
+      <c r="H655" s="5"/>
     </row>
     <row r="656">
-      <c r="E656" s="6"/>
-      <c r="F656" s="5"/>
+      <c r="G656" s="6"/>
+      <c r="H656" s="5"/>
     </row>
     <row r="657">
-      <c r="E657" s="6"/>
-      <c r="F657" s="5"/>
+      <c r="G657" s="6"/>
+      <c r="H657" s="5"/>
     </row>
     <row r="658">
-      <c r="E658" s="6"/>
-      <c r="F658" s="5"/>
+      <c r="G658" s="6"/>
+      <c r="H658" s="5"/>
     </row>
     <row r="659">
-      <c r="E659" s="6"/>
-      <c r="F659" s="5"/>
+      <c r="G659" s="6"/>
+      <c r="H659" s="5"/>
     </row>
     <row r="660">
-      <c r="E660" s="6"/>
-      <c r="F660" s="5"/>
+      <c r="G660" s="6"/>
+      <c r="H660" s="5"/>
     </row>
     <row r="661">
-      <c r="E661" s="6"/>
-      <c r="F661" s="5"/>
+      <c r="G661" s="6"/>
+      <c r="H661" s="5"/>
     </row>
     <row r="662">
-      <c r="E662" s="6"/>
-      <c r="F662" s="5"/>
+      <c r="G662" s="6"/>
+      <c r="H662" s="5"/>
     </row>
     <row r="663">
-      <c r="E663" s="6"/>
-      <c r="F663" s="5"/>
+      <c r="G663" s="6"/>
+      <c r="H663" s="5"/>
     </row>
     <row r="664">
-      <c r="E664" s="6"/>
-      <c r="F664" s="5"/>
+      <c r="G664" s="6"/>
+      <c r="H664" s="5"/>
     </row>
     <row r="665">
-      <c r="E665" s="6"/>
-      <c r="F665" s="5"/>
+      <c r="G665" s="6"/>
+      <c r="H665" s="5"/>
     </row>
     <row r="666">
-      <c r="E666" s="6"/>
-      <c r="F666" s="5"/>
+      <c r="G666" s="6"/>
+      <c r="H666" s="5"/>
     </row>
     <row r="667">
-      <c r="E667" s="6"/>
-      <c r="F667" s="5"/>
+      <c r="G667" s="6"/>
+      <c r="H667" s="5"/>
     </row>
     <row r="668">
-      <c r="E668" s="6"/>
-      <c r="F668" s="5"/>
+      <c r="G668" s="6"/>
+      <c r="H668" s="5"/>
     </row>
     <row r="669">
-      <c r="E669" s="6"/>
-      <c r="F669" s="5"/>
+      <c r="G669" s="6"/>
+      <c r="H669" s="5"/>
     </row>
     <row r="670">
-      <c r="E670" s="6"/>
-      <c r="F670" s="5"/>
+      <c r="G670" s="6"/>
+      <c r="H670" s="5"/>
     </row>
     <row r="671">
-      <c r="E671" s="6"/>
-      <c r="F671" s="5"/>
+      <c r="G671" s="6"/>
+      <c r="H671" s="5"/>
     </row>
     <row r="672">
-      <c r="E672" s="6"/>
-      <c r="F672" s="5"/>
+      <c r="G672" s="6"/>
+      <c r="H672" s="5"/>
     </row>
     <row r="673">
-      <c r="E673" s="6"/>
-      <c r="F673" s="5"/>
+      <c r="G673" s="6"/>
+      <c r="H673" s="5"/>
     </row>
     <row r="674">
-      <c r="E674" s="6"/>
-      <c r="F674" s="5"/>
+      <c r="G674" s="6"/>
+      <c r="H674" s="5"/>
     </row>
     <row r="675">
-      <c r="E675" s="6"/>
-      <c r="F675" s="5"/>
+      <c r="G675" s="6"/>
+      <c r="H675" s="5"/>
     </row>
     <row r="676">
-      <c r="E676" s="6"/>
-      <c r="F676" s="5"/>
+      <c r="G676" s="6"/>
+      <c r="H676" s="5"/>
     </row>
     <row r="677">
-      <c r="E677" s="6"/>
-      <c r="F677" s="5"/>
+      <c r="G677" s="6"/>
+      <c r="H677" s="5"/>
     </row>
     <row r="678">
-      <c r="E678" s="6"/>
-      <c r="F678" s="5"/>
+      <c r="G678" s="6"/>
+      <c r="H678" s="5"/>
     </row>
     <row r="679">
-      <c r="E679" s="6"/>
-      <c r="F679" s="5"/>
+      <c r="G679" s="6"/>
+      <c r="H679" s="5"/>
     </row>
     <row r="680">
-      <c r="E680" s="6"/>
-      <c r="F680" s="5"/>
+      <c r="G680" s="6"/>
+      <c r="H680" s="5"/>
     </row>
     <row r="681">
-      <c r="E681" s="6"/>
-      <c r="F681" s="5"/>
+      <c r="G681" s="6"/>
+      <c r="H681" s="5"/>
     </row>
     <row r="682">
-      <c r="E682" s="6"/>
-      <c r="F682" s="5"/>
+      <c r="G682" s="6"/>
+      <c r="H682" s="5"/>
     </row>
     <row r="683">
-      <c r="E683" s="6"/>
-      <c r="F683" s="5"/>
+      <c r="G683" s="6"/>
+      <c r="H683" s="5"/>
     </row>
     <row r="684">
-      <c r="E684" s="6"/>
-      <c r="F684" s="5"/>
+      <c r="G684" s="6"/>
+      <c r="H684" s="5"/>
     </row>
     <row r="685">
-      <c r="E685" s="6"/>
-      <c r="F685" s="5"/>
+      <c r="G685" s="6"/>
+      <c r="H685" s="5"/>
     </row>
     <row r="686">
-      <c r="E686" s="6"/>
-      <c r="F686" s="5"/>
+      <c r="G686" s="6"/>
+      <c r="H686" s="5"/>
     </row>
     <row r="687">
-      <c r="E687" s="6"/>
-      <c r="F687" s="5"/>
+      <c r="G687" s="6"/>
+      <c r="H687" s="5"/>
     </row>
     <row r="688">
-      <c r="E688" s="6"/>
-      <c r="F688" s="5"/>
+      <c r="G688" s="6"/>
+      <c r="H688" s="5"/>
     </row>
     <row r="689">
-      <c r="E689" s="6"/>
-      <c r="F689" s="5"/>
+      <c r="G689" s="6"/>
+      <c r="H689" s="5"/>
     </row>
     <row r="690">
-      <c r="E690" s="6"/>
-      <c r="F690" s="5"/>
+      <c r="G690" s="6"/>
+      <c r="H690" s="5"/>
     </row>
     <row r="691">
-      <c r="E691" s="6"/>
-      <c r="F691" s="5"/>
+      <c r="G691" s="6"/>
+      <c r="H691" s="5"/>
     </row>
     <row r="692">
-      <c r="E692" s="6"/>
-      <c r="F692" s="5"/>
+      <c r="G692" s="6"/>
+      <c r="H692" s="5"/>
     </row>
     <row r="693">
-      <c r="E693" s="6"/>
-      <c r="F693" s="5"/>
+      <c r="G693" s="6"/>
+      <c r="H693" s="5"/>
     </row>
     <row r="694">
-      <c r="E694" s="6"/>
-      <c r="F694" s="5"/>
+      <c r="G694" s="6"/>
+      <c r="H694" s="5"/>
     </row>
     <row r="695">
-      <c r="E695" s="6"/>
-      <c r="F695" s="5"/>
+      <c r="G695" s="6"/>
+      <c r="H695" s="5"/>
     </row>
     <row r="696">
-      <c r="E696" s="6"/>
-      <c r="F696" s="5"/>
+      <c r="G696" s="6"/>
+      <c r="H696" s="5"/>
     </row>
     <row r="697">
-      <c r="E697" s="6"/>
-      <c r="F697" s="5"/>
+      <c r="G697" s="6"/>
+      <c r="H697" s="5"/>
     </row>
     <row r="698">
-      <c r="E698" s="6"/>
-      <c r="F698" s="5"/>
+      <c r="G698" s="6"/>
+      <c r="H698" s="5"/>
     </row>
     <row r="699">
-      <c r="E699" s="6"/>
-      <c r="F699" s="5"/>
+      <c r="G699" s="6"/>
+      <c r="H699" s="5"/>
     </row>
     <row r="700">
-      <c r="E700" s="6"/>
-      <c r="F700" s="5"/>
+      <c r="G700" s="6"/>
+      <c r="H700" s="5"/>
     </row>
     <row r="701">
-      <c r="E701" s="6"/>
-      <c r="F701" s="5"/>
+      <c r="G701" s="6"/>
+      <c r="H701" s="5"/>
     </row>
     <row r="702">
-      <c r="E702" s="6"/>
-      <c r="F702" s="5"/>
+      <c r="G702" s="6"/>
+      <c r="H702" s="5"/>
     </row>
     <row r="703">
-      <c r="E703" s="6"/>
-      <c r="F703" s="5"/>
+      <c r="G703" s="6"/>
+      <c r="H703" s="5"/>
     </row>
     <row r="704">
-      <c r="E704" s="6"/>
-      <c r="F704" s="5"/>
+      <c r="G704" s="6"/>
+      <c r="H704" s="5"/>
     </row>
     <row r="705">
-      <c r="E705" s="6"/>
-      <c r="F705" s="5"/>
+      <c r="G705" s="6"/>
+      <c r="H705" s="5"/>
     </row>
     <row r="706">
-      <c r="E706" s="6"/>
-      <c r="F706" s="5"/>
+      <c r="G706" s="6"/>
+      <c r="H706" s="5"/>
     </row>
     <row r="707">
-      <c r="E707" s="6"/>
-      <c r="F707" s="5"/>
+      <c r="G707" s="6"/>
+      <c r="H707" s="5"/>
     </row>
     <row r="708">
-      <c r="E708" s="6"/>
-      <c r="F708" s="5"/>
+      <c r="G708" s="6"/>
+      <c r="H708" s="5"/>
     </row>
     <row r="709">
-      <c r="E709" s="6"/>
-      <c r="F709" s="5"/>
+      <c r="G709" s="6"/>
+      <c r="H709" s="5"/>
     </row>
     <row r="710">
-      <c r="E710" s="6"/>
-      <c r="F710" s="5"/>
+      <c r="G710" s="6"/>
+      <c r="H710" s="5"/>
     </row>
     <row r="711">
-      <c r="E711" s="6"/>
-      <c r="F711" s="5"/>
+      <c r="G711" s="6"/>
+      <c r="H711" s="5"/>
     </row>
     <row r="712">
-      <c r="E712" s="6"/>
-      <c r="F712" s="5"/>
+      <c r="G712" s="6"/>
+      <c r="H712" s="5"/>
     </row>
     <row r="713">
-      <c r="E713" s="6"/>
-      <c r="F713" s="5"/>
+      <c r="G713" s="6"/>
+      <c r="H713" s="5"/>
     </row>
     <row r="714">
-      <c r="E714" s="6"/>
-      <c r="F714" s="5"/>
+      <c r="G714" s="6"/>
+      <c r="H714" s="5"/>
     </row>
     <row r="715">
-      <c r="E715" s="6"/>
-      <c r="F715" s="5"/>
+      <c r="G715" s="6"/>
+      <c r="H715" s="5"/>
     </row>
     <row r="716">
-      <c r="E716" s="6"/>
-      <c r="F716" s="5"/>
+      <c r="G716" s="6"/>
+      <c r="H716" s="5"/>
     </row>
     <row r="717">
-      <c r="E717" s="6"/>
-      <c r="F717" s="5"/>
+      <c r="G717" s="6"/>
+      <c r="H717" s="5"/>
     </row>
     <row r="718">
-      <c r="E718" s="6"/>
-      <c r="F718" s="5"/>
+      <c r="G718" s="6"/>
+      <c r="H718" s="5"/>
     </row>
     <row r="719">
-      <c r="E719" s="6"/>
-      <c r="F719" s="5"/>
+      <c r="G719" s="6"/>
+      <c r="H719" s="5"/>
     </row>
     <row r="720">
-      <c r="E720" s="6"/>
-      <c r="F720" s="5"/>
+      <c r="G720" s="6"/>
+      <c r="H720" s="5"/>
     </row>
     <row r="721">
-      <c r="E721" s="6"/>
-      <c r="F721" s="5"/>
+      <c r="G721" s="6"/>
+      <c r="H721" s="5"/>
     </row>
     <row r="722">
-      <c r="E722" s="6"/>
-      <c r="F722" s="5"/>
+      <c r="G722" s="6"/>
+      <c r="H722" s="5"/>
     </row>
     <row r="723">
-      <c r="E723" s="6"/>
-      <c r="F723" s="5"/>
+      <c r="G723" s="6"/>
+      <c r="H723" s="5"/>
     </row>
     <row r="724">
-      <c r="E724" s="6"/>
-      <c r="F724" s="5"/>
+      <c r="G724" s="6"/>
+      <c r="H724" s="5"/>
     </row>
     <row r="725">
-      <c r="E725" s="6"/>
-      <c r="F725" s="5"/>
+      <c r="G725" s="6"/>
+      <c r="H725" s="5"/>
     </row>
     <row r="726">
-      <c r="E726" s="6"/>
-      <c r="F726" s="5"/>
+      <c r="G726" s="6"/>
+      <c r="H726" s="5"/>
     </row>
     <row r="727">
-      <c r="E727" s="6"/>
-      <c r="F727" s="5"/>
+      <c r="G727" s="6"/>
+      <c r="H727" s="5"/>
     </row>
     <row r="728">
-      <c r="E728" s="6"/>
-      <c r="F728" s="5"/>
+      <c r="G728" s="6"/>
+      <c r="H728" s="5"/>
     </row>
     <row r="729">
-      <c r="E729" s="6"/>
-      <c r="F729" s="5"/>
+      <c r="G729" s="6"/>
+      <c r="H729" s="5"/>
     </row>
     <row r="730">
-      <c r="E730" s="6"/>
-      <c r="F730" s="5"/>
+      <c r="G730" s="6"/>
+      <c r="H730" s="5"/>
     </row>
     <row r="731">
-      <c r="E731" s="6"/>
-      <c r="F731" s="5"/>
+      <c r="G731" s="6"/>
+      <c r="H731" s="5"/>
     </row>
     <row r="732">
-      <c r="E732" s="6"/>
-      <c r="F732" s="5"/>
+      <c r="G732" s="6"/>
+      <c r="H732" s="5"/>
     </row>
     <row r="733">
-      <c r="E733" s="6"/>
-      <c r="F733" s="5"/>
+      <c r="G733" s="6"/>
+      <c r="H733" s="5"/>
     </row>
     <row r="734">
-      <c r="E734" s="6"/>
-      <c r="F734" s="5"/>
+      <c r="G734" s="6"/>
+      <c r="H734" s="5"/>
     </row>
     <row r="735">
-      <c r="E735" s="6"/>
-      <c r="F735" s="5"/>
+      <c r="G735" s="6"/>
+      <c r="H735" s="5"/>
     </row>
     <row r="736">
-      <c r="E736" s="6"/>
-      <c r="F736" s="5"/>
+      <c r="G736" s="6"/>
+      <c r="H736" s="5"/>
     </row>
     <row r="737">
-      <c r="E737" s="6"/>
-      <c r="F737" s="5"/>
+      <c r="G737" s="6"/>
+      <c r="H737" s="5"/>
     </row>
     <row r="738">
-      <c r="E738" s="6"/>
-      <c r="F738" s="5"/>
+      <c r="G738" s="6"/>
+      <c r="H738" s="5"/>
     </row>
     <row r="739">
-      <c r="E739" s="6"/>
-      <c r="F739" s="5"/>
+      <c r="G739" s="6"/>
+      <c r="H739" s="5"/>
     </row>
     <row r="740">
-      <c r="E740" s="6"/>
-      <c r="F740" s="5"/>
+      <c r="G740" s="6"/>
+      <c r="H740" s="5"/>
     </row>
     <row r="741">
-      <c r="E741" s="6"/>
-      <c r="F741" s="5"/>
+      <c r="G741" s="6"/>
+      <c r="H741" s="5"/>
     </row>
     <row r="742">
-      <c r="E742" s="6"/>
-      <c r="F742" s="5"/>
+      <c r="G742" s="6"/>
+      <c r="H742" s="5"/>
     </row>
     <row r="743">
-      <c r="E743" s="6"/>
-      <c r="F743" s="5"/>
+      <c r="G743" s="6"/>
+      <c r="H743" s="5"/>
     </row>
     <row r="744">
-      <c r="E744" s="6"/>
-      <c r="F744" s="5"/>
+      <c r="G744" s="6"/>
+      <c r="H744" s="5"/>
     </row>
     <row r="745">
-      <c r="E745" s="6"/>
-      <c r="F745" s="5"/>
+      <c r="G745" s="6"/>
+      <c r="H745" s="5"/>
     </row>
     <row r="746">
-      <c r="E746" s="6"/>
-      <c r="F746" s="5"/>
+      <c r="G746" s="6"/>
+      <c r="H746" s="5"/>
     </row>
     <row r="747">
-      <c r="E747" s="6"/>
-      <c r="F747" s="5"/>
+      <c r="G747" s="6"/>
+      <c r="H747" s="5"/>
     </row>
     <row r="748">
-      <c r="E748" s="6"/>
-      <c r="F748" s="5"/>
+      <c r="G748" s="6"/>
+      <c r="H748" s="5"/>
     </row>
     <row r="749">
-      <c r="E749" s="6"/>
-      <c r="F749" s="5"/>
+      <c r="G749" s="6"/>
+      <c r="H749" s="5"/>
     </row>
     <row r="750">
-      <c r="E750" s="6"/>
-      <c r="F750" s="5"/>
+      <c r="G750" s="6"/>
+      <c r="H750" s="5"/>
     </row>
     <row r="751">
-      <c r="E751" s="6"/>
-      <c r="F751" s="5"/>
+      <c r="G751" s="6"/>
+      <c r="H751" s="5"/>
     </row>
     <row r="752">
-      <c r="E752" s="6"/>
-      <c r="F752" s="5"/>
+      <c r="G752" s="6"/>
+      <c r="H752" s="5"/>
     </row>
     <row r="753">
-      <c r="E753" s="6"/>
-      <c r="F753" s="5"/>
+      <c r="G753" s="6"/>
+      <c r="H753" s="5"/>
     </row>
     <row r="754">
-      <c r="E754" s="6"/>
-      <c r="F754" s="5"/>
+      <c r="G754" s="6"/>
+      <c r="H754" s="5"/>
     </row>
     <row r="755">
-      <c r="E755" s="6"/>
-      <c r="F755" s="5"/>
+      <c r="G755" s="6"/>
+      <c r="H755" s="5"/>
     </row>
     <row r="756">
-      <c r="E756" s="6"/>
-      <c r="F756" s="5"/>
+      <c r="G756" s="6"/>
+      <c r="H756" s="5"/>
     </row>
     <row r="757">
-      <c r="E757" s="6"/>
-      <c r="F757" s="5"/>
+      <c r="G757" s="6"/>
+      <c r="H757" s="5"/>
     </row>
     <row r="758">
-      <c r="E758" s="6"/>
-      <c r="F758" s="5"/>
+      <c r="G758" s="6"/>
+      <c r="H758" s="5"/>
     </row>
     <row r="759">
-      <c r="E759" s="6"/>
-      <c r="F759" s="5"/>
+      <c r="G759" s="6"/>
+      <c r="H759" s="5"/>
     </row>
     <row r="760">
-      <c r="E760" s="6"/>
-      <c r="F760" s="5"/>
+      <c r="G760" s="6"/>
+      <c r="H760" s="5"/>
     </row>
     <row r="761">
-      <c r="E761" s="6"/>
-      <c r="F761" s="5"/>
+      <c r="G761" s="6"/>
+      <c r="H761" s="5"/>
     </row>
     <row r="762">
-      <c r="E762" s="6"/>
-      <c r="F762" s="5"/>
+      <c r="G762" s="6"/>
+      <c r="H762" s="5"/>
     </row>
     <row r="763">
-      <c r="E763" s="6"/>
-      <c r="F763" s="5"/>
+      <c r="G763" s="6"/>
+      <c r="H763" s="5"/>
     </row>
     <row r="764">
-      <c r="E764" s="6"/>
-      <c r="F764" s="5"/>
+      <c r="G764" s="6"/>
+      <c r="H764" s="5"/>
     </row>
     <row r="765">
-      <c r="E765" s="6"/>
-      <c r="F765" s="5"/>
+      <c r="G765" s="6"/>
+      <c r="H765" s="5"/>
     </row>
     <row r="766">
-      <c r="E766" s="6"/>
-      <c r="F766" s="5"/>
+      <c r="G766" s="6"/>
+      <c r="H766" s="5"/>
     </row>
     <row r="767">
-      <c r="E767" s="6"/>
-      <c r="F767" s="5"/>
+      <c r="G767" s="6"/>
+      <c r="H767" s="5"/>
     </row>
     <row r="768">
-      <c r="E768" s="6"/>
-      <c r="F768" s="5"/>
+      <c r="G768" s="6"/>
+      <c r="H768" s="5"/>
     </row>
     <row r="769">
-      <c r="E769" s="6"/>
-      <c r="F769" s="5"/>
+      <c r="G769" s="6"/>
+      <c r="H769" s="5"/>
     </row>
     <row r="770">
-      <c r="E770" s="6"/>
-      <c r="F770" s="5"/>
+      <c r="G770" s="6"/>
+      <c r="H770" s="5"/>
     </row>
     <row r="771">
-      <c r="E771" s="6"/>
-      <c r="F771" s="5"/>
+      <c r="G771" s="6"/>
+      <c r="H771" s="5"/>
     </row>
     <row r="772">
-      <c r="E772" s="6"/>
-      <c r="F772" s="5"/>
+      <c r="G772" s="6"/>
+      <c r="H772" s="5"/>
     </row>
     <row r="773">
-      <c r="E773" s="6"/>
-      <c r="F773" s="5"/>
+      <c r="G773" s="6"/>
+      <c r="H773" s="5"/>
     </row>
     <row r="774">
-      <c r="E774" s="6"/>
-      <c r="F774" s="5"/>
+      <c r="G774" s="6"/>
+      <c r="H774" s="5"/>
     </row>
     <row r="775">
-      <c r="E775" s="6"/>
-      <c r="F775" s="5"/>
+      <c r="G775" s="6"/>
+      <c r="H775" s="5"/>
     </row>
     <row r="776">
-      <c r="E776" s="6"/>
-      <c r="F776" s="5"/>
+      <c r="G776" s="6"/>
+      <c r="H776" s="5"/>
     </row>
     <row r="777">
-      <c r="E777" s="6"/>
-      <c r="F777" s="5"/>
+      <c r="G777" s="6"/>
+      <c r="H777" s="5"/>
     </row>
     <row r="778">
-      <c r="E778" s="6"/>
-      <c r="F778" s="5"/>
+      <c r="G778" s="6"/>
+      <c r="H778" s="5"/>
     </row>
     <row r="779">
-      <c r="E779" s="6"/>
-      <c r="F779" s="5"/>
+      <c r="G779" s="6"/>
+      <c r="H779" s="5"/>
     </row>
     <row r="780">
-      <c r="E780" s="6"/>
-      <c r="F780" s="5"/>
+      <c r="G780" s="6"/>
+      <c r="H780" s="5"/>
     </row>
     <row r="781">
-      <c r="E781" s="6"/>
-      <c r="F781" s="5"/>
+      <c r="G781" s="6"/>
+      <c r="H781" s="5"/>
     </row>
     <row r="782">
-      <c r="E782" s="6"/>
-      <c r="F782" s="5"/>
+      <c r="G782" s="6"/>
+      <c r="H782" s="5"/>
     </row>
     <row r="783">
-      <c r="E783" s="6"/>
-      <c r="F783" s="5"/>
+      <c r="G783" s="6"/>
+      <c r="H783" s="5"/>
     </row>
     <row r="784">
-      <c r="E784" s="6"/>
-      <c r="F784" s="5"/>
+      <c r="G784" s="6"/>
+      <c r="H784" s="5"/>
     </row>
     <row r="785">
-      <c r="E785" s="6"/>
-      <c r="F785" s="5"/>
+      <c r="G785" s="6"/>
+      <c r="H785" s="5"/>
     </row>
     <row r="786">
-      <c r="E786" s="6"/>
-      <c r="F786" s="5"/>
+      <c r="G786" s="6"/>
+      <c r="H786" s="5"/>
     </row>
     <row r="787">
-      <c r="E787" s="6"/>
-      <c r="F787" s="5"/>
+      <c r="G787" s="6"/>
+      <c r="H787" s="5"/>
     </row>
     <row r="788">
-      <c r="E788" s="6"/>
-      <c r="F788" s="5"/>
+      <c r="G788" s="6"/>
+      <c r="H788" s="5"/>
     </row>
     <row r="789">
-      <c r="E789" s="6"/>
-      <c r="F789" s="5"/>
+      <c r="G789" s="6"/>
+      <c r="H789" s="5"/>
     </row>
     <row r="790">
-      <c r="E790" s="6"/>
-      <c r="F790" s="5"/>
+      <c r="G790" s="6"/>
+      <c r="H790" s="5"/>
     </row>
     <row r="791">
-      <c r="E791" s="6"/>
-      <c r="F791" s="5"/>
+      <c r="G791" s="6"/>
+      <c r="H791" s="5"/>
     </row>
     <row r="792">
-      <c r="E792" s="6"/>
-      <c r="F792" s="5"/>
+      <c r="G792" s="6"/>
+      <c r="H792" s="5"/>
     </row>
     <row r="793">
-      <c r="E793" s="6"/>
-      <c r="F793" s="5"/>
+      <c r="G793" s="6"/>
+      <c r="H793" s="5"/>
     </row>
     <row r="794">
-      <c r="E794" s="6"/>
-      <c r="F794" s="5"/>
+      <c r="G794" s="6"/>
+      <c r="H794" s="5"/>
     </row>
     <row r="795">
-      <c r="E795" s="6"/>
-      <c r="F795" s="5"/>
+      <c r="G795" s="6"/>
+      <c r="H795" s="5"/>
     </row>
     <row r="796">
-      <c r="E796" s="6"/>
-      <c r="F796" s="5"/>
+      <c r="G796" s="6"/>
+      <c r="H796" s="5"/>
     </row>
     <row r="797">
-      <c r="E797" s="6"/>
-      <c r="F797" s="5"/>
+      <c r="G797" s="6"/>
+      <c r="H797" s="5"/>
     </row>
     <row r="798">
-      <c r="E798" s="6"/>
-      <c r="F798" s="5"/>
+      <c r="G798" s="6"/>
+      <c r="H798" s="5"/>
     </row>
     <row r="799">
-      <c r="E799" s="6"/>
-      <c r="F799" s="5"/>
+      <c r="G799" s="6"/>
+      <c r="H799" s="5"/>
     </row>
     <row r="800">
-      <c r="E800" s="6"/>
-      <c r="F800" s="5"/>
+      <c r="G800" s="6"/>
+      <c r="H800" s="5"/>
     </row>
     <row r="801">
-      <c r="E801" s="6"/>
-      <c r="F801" s="5"/>
+      <c r="G801" s="6"/>
+      <c r="H801" s="5"/>
     </row>
     <row r="802">
-      <c r="E802" s="6"/>
-      <c r="F802" s="5"/>
+      <c r="G802" s="6"/>
+      <c r="H802" s="5"/>
     </row>
     <row r="803">
-      <c r="E803" s="6"/>
-      <c r="F803" s="5"/>
+      <c r="G803" s="6"/>
+      <c r="H803" s="5"/>
     </row>
     <row r="804">
-      <c r="E804" s="6"/>
-      <c r="F804" s="5"/>
+      <c r="G804" s="6"/>
+      <c r="H804" s="5"/>
     </row>
     <row r="805">
-      <c r="E805" s="6"/>
-      <c r="F805" s="5"/>
+      <c r="G805" s="6"/>
+      <c r="H805" s="5"/>
     </row>
     <row r="806">
-      <c r="E806" s="6"/>
-      <c r="F806" s="5"/>
+      <c r="G806" s="6"/>
+      <c r="H806" s="5"/>
     </row>
     <row r="807">
-      <c r="E807" s="6"/>
-      <c r="F807" s="5"/>
+      <c r="G807" s="6"/>
+      <c r="H807" s="5"/>
     </row>
     <row r="808">
-      <c r="E808" s="6"/>
-      <c r="F808" s="5"/>
+      <c r="G808" s="6"/>
+      <c r="H808" s="5"/>
     </row>
     <row r="809">
-      <c r="E809" s="6"/>
-      <c r="F809" s="5"/>
+      <c r="G809" s="6"/>
+      <c r="H809" s="5"/>
     </row>
     <row r="810">
-      <c r="E810" s="6"/>
-      <c r="F810" s="5"/>
+      <c r="G810" s="6"/>
+      <c r="H810" s="5"/>
     </row>
     <row r="811">
-      <c r="E811" s="6"/>
-      <c r="F811" s="5"/>
+      <c r="G811" s="6"/>
+      <c r="H811" s="5"/>
     </row>
     <row r="812">
-      <c r="E812" s="6"/>
-      <c r="F812" s="5"/>
+      <c r="G812" s="6"/>
+      <c r="H812" s="5"/>
     </row>
     <row r="813">
-      <c r="E813" s="6"/>
-      <c r="F813" s="5"/>
+      <c r="G813" s="6"/>
+      <c r="H813" s="5"/>
     </row>
     <row r="814">
-      <c r="E814" s="6"/>
-      <c r="F814" s="5"/>
+      <c r="G814" s="6"/>
+      <c r="H814" s="5"/>
     </row>
     <row r="815">
-      <c r="E815" s="6"/>
-      <c r="F815" s="5"/>
+      <c r="G815" s="6"/>
+      <c r="H815" s="5"/>
     </row>
     <row r="816">
-      <c r="E816" s="6"/>
-      <c r="F816" s="5"/>
+      <c r="G816" s="6"/>
+      <c r="H816" s="5"/>
     </row>
     <row r="817">
-      <c r="E817" s="6"/>
-      <c r="F817" s="5"/>
+      <c r="G817" s="6"/>
+      <c r="H817" s="5"/>
     </row>
     <row r="818">
-      <c r="E818" s="6"/>
-      <c r="F818" s="5"/>
+      <c r="G818" s="6"/>
+      <c r="H818" s="5"/>
     </row>
     <row r="819">
-      <c r="E819" s="6"/>
-      <c r="F819" s="5"/>
+      <c r="G819" s="6"/>
+      <c r="H819" s="5"/>
     </row>
     <row r="820">
-      <c r="E820" s="6"/>
-      <c r="F820" s="5"/>
+      <c r="G820" s="6"/>
+      <c r="H820" s="5"/>
     </row>
     <row r="821">
-      <c r="E821" s="6"/>
-      <c r="F821" s="5"/>
+      <c r="G821" s="6"/>
+      <c r="H821" s="5"/>
     </row>
     <row r="822">
-      <c r="E822" s="6"/>
-      <c r="F822" s="5"/>
+      <c r="G822" s="6"/>
+      <c r="H822" s="5"/>
     </row>
     <row r="823">
-      <c r="E823" s="6"/>
-      <c r="F823" s="5"/>
+      <c r="G823" s="6"/>
+      <c r="H823" s="5"/>
     </row>
     <row r="824">
-      <c r="E824" s="6"/>
-      <c r="F824" s="5"/>
+      <c r="G824" s="6"/>
+      <c r="H824" s="5"/>
     </row>
     <row r="825">
-      <c r="E825" s="6"/>
-      <c r="F825" s="5"/>
+      <c r="G825" s="6"/>
+      <c r="H825" s="5"/>
     </row>
     <row r="826">
-      <c r="E826" s="6"/>
-      <c r="F826" s="5"/>
+      <c r="G826" s="6"/>
+      <c r="H826" s="5"/>
     </row>
     <row r="827">
-      <c r="E827" s="6"/>
-      <c r="F827" s="5"/>
+      <c r="G827" s="6"/>
+      <c r="H827" s="5"/>
     </row>
     <row r="828">
-      <c r="E828" s="6"/>
-      <c r="F828" s="5"/>
+      <c r="G828" s="6"/>
+      <c r="H828" s="5"/>
     </row>
     <row r="829">
-      <c r="E829" s="6"/>
-      <c r="F829" s="5"/>
+      <c r="G829" s="6"/>
+      <c r="H829" s="5"/>
     </row>
     <row r="830">
-      <c r="E830" s="6"/>
-      <c r="F830" s="5"/>
+      <c r="G830" s="6"/>
+      <c r="H830" s="5"/>
     </row>
     <row r="831">
-      <c r="E831" s="6"/>
-      <c r="F831" s="5"/>
+      <c r="G831" s="6"/>
+      <c r="H831" s="5"/>
     </row>
     <row r="832">
-      <c r="E832" s="6"/>
-      <c r="F832" s="5"/>
+      <c r="G832" s="6"/>
+      <c r="H832" s="5"/>
     </row>
     <row r="833">
-      <c r="E833" s="6"/>
-      <c r="F833" s="5"/>
+      <c r="G833" s="6"/>
+      <c r="H833" s="5"/>
     </row>
     <row r="834">
-      <c r="E834" s="6"/>
-      <c r="F834" s="5"/>
+      <c r="G834" s="6"/>
+      <c r="H834" s="5"/>
     </row>
     <row r="835">
-      <c r="E835" s="6"/>
-      <c r="F835" s="5"/>
+      <c r="G835" s="6"/>
+      <c r="H835" s="5"/>
     </row>
     <row r="836">
-      <c r="E836" s="6"/>
-      <c r="F836" s="5"/>
+      <c r="G836" s="6"/>
+      <c r="H836" s="5"/>
     </row>
     <row r="837">
-      <c r="E837" s="6"/>
-      <c r="F837" s="5"/>
+      <c r="G837" s="6"/>
+      <c r="H837" s="5"/>
     </row>
     <row r="838">
-      <c r="E838" s="6"/>
-      <c r="F838" s="5"/>
+      <c r="G838" s="6"/>
+      <c r="H838" s="5"/>
     </row>
     <row r="839">
-      <c r="E839" s="6"/>
-      <c r="F839" s="5"/>
+      <c r="G839" s="6"/>
+      <c r="H839" s="5"/>
     </row>
     <row r="840">
-      <c r="E840" s="6"/>
-      <c r="F840" s="5"/>
+      <c r="G840" s="6"/>
+      <c r="H840" s="5"/>
     </row>
     <row r="841">
-      <c r="E841" s="6"/>
-      <c r="F841" s="5"/>
+      <c r="G841" s="6"/>
+      <c r="H841" s="5"/>
     </row>
     <row r="842">
-      <c r="E842" s="6"/>
-      <c r="F842" s="5"/>
+      <c r="G842" s="6"/>
+      <c r="H842" s="5"/>
     </row>
     <row r="843">
-      <c r="E843" s="6"/>
-      <c r="F843" s="5"/>
+      <c r="G843" s="6"/>
+      <c r="H843" s="5"/>
     </row>
     <row r="844">
-      <c r="E844" s="6"/>
-      <c r="F844" s="5"/>
+      <c r="G844" s="6"/>
+      <c r="H844" s="5"/>
     </row>
     <row r="845">
-      <c r="E845" s="6"/>
-      <c r="F845" s="5"/>
+      <c r="G845" s="6"/>
+      <c r="H845" s="5"/>
     </row>
     <row r="846">
-      <c r="E846" s="6"/>
-      <c r="F846" s="5"/>
+      <c r="G846" s="6"/>
+      <c r="H846" s="5"/>
     </row>
     <row r="847">
-      <c r="E847" s="6"/>
-      <c r="F847" s="5"/>
+      <c r="G847" s="6"/>
+      <c r="H847" s="5"/>
     </row>
     <row r="848">
-      <c r="E848" s="6"/>
-      <c r="F848" s="5"/>
+      <c r="G848" s="6"/>
+      <c r="H848" s="5"/>
     </row>
     <row r="849">
-      <c r="E849" s="6"/>
-      <c r="F849" s="5"/>
+      <c r="G849" s="6"/>
+      <c r="H849" s="5"/>
     </row>
     <row r="850">
-      <c r="E850" s="6"/>
-      <c r="F850" s="5"/>
+      <c r="G850" s="6"/>
+      <c r="H850" s="5"/>
     </row>
     <row r="851">
-      <c r="E851" s="6"/>
-      <c r="F851" s="5"/>
+      <c r="G851" s="6"/>
+      <c r="H851" s="5"/>
     </row>
     <row r="852">
-      <c r="E852" s="6"/>
-      <c r="F852" s="5"/>
+      <c r="G852" s="6"/>
+      <c r="H852" s="5"/>
     </row>
     <row r="853">
-      <c r="E853" s="6"/>
-      <c r="F853" s="5"/>
+      <c r="G853" s="6"/>
+      <c r="H853" s="5"/>
     </row>
     <row r="854">
-      <c r="E854" s="6"/>
-      <c r="F854" s="5"/>
+      <c r="G854" s="6"/>
+      <c r="H854" s="5"/>
     </row>
     <row r="855">
-      <c r="E855" s="6"/>
-      <c r="F855" s="5"/>
+      <c r="G855" s="6"/>
+      <c r="H855" s="5"/>
     </row>
     <row r="856">
-      <c r="E856" s="6"/>
-      <c r="F856" s="5"/>
+      <c r="G856" s="6"/>
+      <c r="H856" s="5"/>
     </row>
     <row r="857">
-      <c r="E857" s="6"/>
-      <c r="F857" s="5"/>
+      <c r="G857" s="6"/>
+      <c r="H857" s="5"/>
     </row>
     <row r="858">
-      <c r="E858" s="6"/>
-      <c r="F858" s="5"/>
+      <c r="G858" s="6"/>
+      <c r="H858" s="5"/>
     </row>
     <row r="859">
-      <c r="E859" s="6"/>
-      <c r="F859" s="5"/>
+      <c r="G859" s="6"/>
+      <c r="H859" s="5"/>
     </row>
     <row r="860">
-      <c r="E860" s="6"/>
-      <c r="F860" s="5"/>
+      <c r="G860" s="6"/>
+      <c r="H860" s="5"/>
     </row>
     <row r="861">
-      <c r="E861" s="6"/>
-      <c r="F861" s="5"/>
+      <c r="G861" s="6"/>
+      <c r="H861" s="5"/>
     </row>
     <row r="862">
-      <c r="E862" s="6"/>
-      <c r="F862" s="5"/>
+      <c r="G862" s="6"/>
+      <c r="H862" s="5"/>
     </row>
     <row r="863">
-      <c r="E863" s="6"/>
-      <c r="F863" s="5"/>
+      <c r="G863" s="6"/>
+      <c r="H863" s="5"/>
     </row>
     <row r="864">
-      <c r="E864" s="6"/>
-      <c r="F864" s="5"/>
+      <c r="G864" s="6"/>
+      <c r="H864" s="5"/>
     </row>
     <row r="865">
-      <c r="E865" s="6"/>
-      <c r="F865" s="5"/>
+      <c r="G865" s="6"/>
+      <c r="H865" s="5"/>
     </row>
     <row r="866">
-      <c r="E866" s="6"/>
-      <c r="F866" s="5"/>
+      <c r="G866" s="6"/>
+      <c r="H866" s="5"/>
     </row>
     <row r="867">
-      <c r="E867" s="6"/>
-      <c r="F867" s="5"/>
+      <c r="G867" s="6"/>
+      <c r="H867" s="5"/>
     </row>
     <row r="868">
-      <c r="E868" s="6"/>
-      <c r="F868" s="5"/>
+      <c r="G868" s="6"/>
+      <c r="H868" s="5"/>
     </row>
     <row r="869">
-      <c r="E869" s="6"/>
-      <c r="F869" s="5"/>
+      <c r="G869" s="6"/>
+      <c r="H869" s="5"/>
     </row>
     <row r="870">
-      <c r="E870" s="6"/>
-      <c r="F870" s="5"/>
+      <c r="G870" s="6"/>
+      <c r="H870" s="5"/>
     </row>
     <row r="871">
-      <c r="E871" s="6"/>
-      <c r="F871" s="5"/>
+      <c r="G871" s="6"/>
+      <c r="H871" s="5"/>
     </row>
     <row r="872">
-      <c r="E872" s="6"/>
-      <c r="F872" s="5"/>
+      <c r="G872" s="6"/>
+      <c r="H872" s="5"/>
     </row>
     <row r="873">
-      <c r="E873" s="6"/>
-      <c r="F873" s="5"/>
+      <c r="G873" s="6"/>
+      <c r="H873" s="5"/>
     </row>
     <row r="874">
-      <c r="E874" s="6"/>
-      <c r="F874" s="5"/>
+      <c r="G874" s="6"/>
+      <c r="H874" s="5"/>
     </row>
     <row r="875">
-      <c r="E875" s="6"/>
-      <c r="F875" s="5"/>
+      <c r="G875" s="6"/>
+      <c r="H875" s="5"/>
     </row>
     <row r="876">
-      <c r="E876" s="6"/>
-      <c r="F876" s="5"/>
+      <c r="G876" s="6"/>
+      <c r="H876" s="5"/>
     </row>
     <row r="877">
-      <c r="E877" s="6"/>
-      <c r="F877" s="5"/>
+      <c r="G877" s="6"/>
+      <c r="H877" s="5"/>
     </row>
     <row r="878">
-      <c r="E878" s="6"/>
-      <c r="F878" s="5"/>
+      <c r="G878" s="6"/>
+      <c r="H878" s="5"/>
     </row>
     <row r="879">
-      <c r="E879" s="6"/>
-      <c r="F879" s="5"/>
+      <c r="G879" s="6"/>
+      <c r="H879" s="5"/>
     </row>
     <row r="880">
-      <c r="E880" s="6"/>
-      <c r="F880" s="5"/>
+      <c r="G880" s="6"/>
+      <c r="H880" s="5"/>
     </row>
     <row r="881">
-      <c r="E881" s="6"/>
-      <c r="F881" s="5"/>
+      <c r="G881" s="6"/>
+      <c r="H881" s="5"/>
     </row>
     <row r="882">
-      <c r="E882" s="6"/>
-      <c r="F882" s="5"/>
+      <c r="G882" s="6"/>
+      <c r="H882" s="5"/>
     </row>
     <row r="883">
-      <c r="E883" s="6"/>
-      <c r="F883" s="5"/>
+      <c r="G883" s="6"/>
+      <c r="H883" s="5"/>
     </row>
     <row r="884">
-      <c r="E884" s="6"/>
-      <c r="F884" s="5"/>
+      <c r="G884" s="6"/>
+      <c r="H884" s="5"/>
     </row>
     <row r="885">
-      <c r="E885" s="6"/>
-      <c r="F885" s="5"/>
+      <c r="G885" s="6"/>
+      <c r="H885" s="5"/>
     </row>
     <row r="886">
-      <c r="E886" s="6"/>
-      <c r="F886" s="5"/>
+      <c r="G886" s="6"/>
+      <c r="H886" s="5"/>
     </row>
     <row r="887">
-      <c r="E887" s="6"/>
-      <c r="F887" s="5"/>
+      <c r="G887" s="6"/>
+      <c r="H887" s="5"/>
     </row>
     <row r="888">
-      <c r="E888" s="6"/>
-      <c r="F888" s="5"/>
+      <c r="G888" s="6"/>
+      <c r="H888" s="5"/>
     </row>
     <row r="889">
-      <c r="E889" s="6"/>
-      <c r="F889" s="5"/>
+      <c r="G889" s="6"/>
+      <c r="H889" s="5"/>
     </row>
     <row r="890">
-      <c r="E890" s="6"/>
-      <c r="F890" s="5"/>
+      <c r="G890" s="6"/>
+      <c r="H890" s="5"/>
     </row>
     <row r="891">
-      <c r="E891" s="6"/>
-      <c r="F891" s="5"/>
+      <c r="G891" s="6"/>
+      <c r="H891" s="5"/>
     </row>
     <row r="892">
-      <c r="E892" s="6"/>
-      <c r="F892" s="5"/>
+      <c r="G892" s="6"/>
+      <c r="H892" s="5"/>
     </row>
     <row r="893">
-      <c r="E893" s="6"/>
-      <c r="F893" s="5"/>
+      <c r="G893" s="6"/>
+      <c r="H893" s="5"/>
     </row>
     <row r="894">
-      <c r="E894" s="6"/>
-      <c r="F894" s="5"/>
+      <c r="G894" s="6"/>
+      <c r="H894" s="5"/>
     </row>
     <row r="895">
-      <c r="E895" s="6"/>
-      <c r="F895" s="5"/>
+      <c r="G895" s="6"/>
+      <c r="H895" s="5"/>
     </row>
     <row r="896">
-      <c r="E896" s="6"/>
-      <c r="F896" s="5"/>
+      <c r="G896" s="6"/>
+      <c r="H896" s="5"/>
     </row>
     <row r="897">
-      <c r="E897" s="6"/>
-      <c r="F897" s="5"/>
+      <c r="G897" s="6"/>
+      <c r="H897" s="5"/>
     </row>
     <row r="898">
-      <c r="E898" s="6"/>
-      <c r="F898" s="5"/>
+      <c r="G898" s="6"/>
+      <c r="H898" s="5"/>
     </row>
     <row r="899">
-      <c r="E899" s="6"/>
-      <c r="F899" s="5"/>
+      <c r="G899" s="6"/>
+      <c r="H899" s="5"/>
     </row>
     <row r="900">
-      <c r="E900" s="6"/>
-      <c r="F900" s="5"/>
+      <c r="G900" s="6"/>
+      <c r="H900" s="5"/>
     </row>
     <row r="901">
-      <c r="E901" s="6"/>
-      <c r="F901" s="5"/>
+      <c r="G901" s="6"/>
+      <c r="H901" s="5"/>
     </row>
     <row r="902">
-      <c r="E902" s="6"/>
-      <c r="F902" s="5"/>
+      <c r="G902" s="6"/>
+      <c r="H902" s="5"/>
     </row>
     <row r="903">
-      <c r="E903" s="6"/>
-      <c r="F903" s="5"/>
+      <c r="G903" s="6"/>
+      <c r="H903" s="5"/>
     </row>
     <row r="904">
-      <c r="E904" s="6"/>
-      <c r="F904" s="5"/>
+      <c r="G904" s="6"/>
+      <c r="H904" s="5"/>
     </row>
     <row r="905">
-      <c r="E905" s="6"/>
-      <c r="F905" s="5"/>
+      <c r="G905" s="6"/>
+      <c r="H905" s="5"/>
     </row>
     <row r="906">
-      <c r="E906" s="6"/>
-      <c r="F906" s="5"/>
+      <c r="G906" s="6"/>
+      <c r="H906" s="5"/>
     </row>
     <row r="907">
-      <c r="E907" s="6"/>
-      <c r="F907" s="5"/>
+      <c r="G907" s="6"/>
+      <c r="H907" s="5"/>
     </row>
     <row r="908">
-      <c r="E908" s="6"/>
-      <c r="F908" s="5"/>
+      <c r="G908" s="6"/>
+      <c r="H908" s="5"/>
     </row>
     <row r="909">
-      <c r="E909" s="6"/>
-      <c r="F909" s="5"/>
+      <c r="G909" s="6"/>
+      <c r="H909" s="5"/>
     </row>
     <row r="910">
-      <c r="E910" s="6"/>
-      <c r="F910" s="5"/>
+      <c r="G910" s="6"/>
+      <c r="H910" s="5"/>
     </row>
     <row r="911">
-      <c r="E911" s="6"/>
-      <c r="F911" s="5"/>
+      <c r="G911" s="6"/>
+      <c r="H911" s="5"/>
     </row>
     <row r="912">
-      <c r="E912" s="6"/>
-      <c r="F912" s="5"/>
+      <c r="G912" s="6"/>
+      <c r="H912" s="5"/>
     </row>
     <row r="913">
-      <c r="E913" s="6"/>
-      <c r="F913" s="5"/>
+      <c r="G913" s="6"/>
+      <c r="H913" s="5"/>
     </row>
     <row r="914">
-      <c r="E914" s="6"/>
-      <c r="F914" s="5"/>
+      <c r="G914" s="6"/>
+      <c r="H914" s="5"/>
     </row>
     <row r="915">
-      <c r="E915" s="6"/>
-      <c r="F915" s="5"/>
+      <c r="G915" s="6"/>
+      <c r="H915" s="5"/>
     </row>
     <row r="916">
-      <c r="E916" s="6"/>
-      <c r="F916" s="5"/>
+      <c r="G916" s="6"/>
+      <c r="H916" s="5"/>
     </row>
     <row r="917">
-      <c r="E917" s="6"/>
-      <c r="F917" s="5"/>
+      <c r="G917" s="6"/>
+      <c r="H917" s="5"/>
     </row>
     <row r="918">
-      <c r="E918" s="6"/>
-      <c r="F918" s="5"/>
+      <c r="G918" s="6"/>
+      <c r="H918" s="5"/>
     </row>
     <row r="919">
-      <c r="E919" s="6"/>
-      <c r="F919" s="5"/>
+      <c r="G919" s="6"/>
+      <c r="H919" s="5"/>
     </row>
     <row r="920">
-      <c r="E920" s="6"/>
-      <c r="F920" s="5"/>
+      <c r="G920" s="6"/>
+      <c r="H920" s="5"/>
     </row>
     <row r="921">
-      <c r="E921" s="6"/>
-      <c r="F921" s="5"/>
+      <c r="G921" s="6"/>
+      <c r="H921" s="5"/>
     </row>
     <row r="922">
-      <c r="E922" s="6"/>
-      <c r="F922" s="5"/>
+      <c r="G922" s="6"/>
+      <c r="H922" s="5"/>
     </row>
     <row r="923">
-      <c r="E923" s="6"/>
-      <c r="F923" s="5"/>
+      <c r="G923" s="6"/>
+      <c r="H923" s="5"/>
     </row>
     <row r="924">
-      <c r="E924" s="6"/>
-      <c r="F924" s="5"/>
+      <c r="G924" s="6"/>
+      <c r="H924" s="5"/>
     </row>
     <row r="925">
-      <c r="E925" s="6"/>
-      <c r="F925" s="5"/>
+      <c r="G925" s="6"/>
+      <c r="H925" s="5"/>
     </row>
     <row r="926">
-      <c r="E926" s="6"/>
-      <c r="F926" s="5"/>
+      <c r="G926" s="6"/>
+      <c r="H926" s="5"/>
     </row>
     <row r="927">
-      <c r="E927" s="6"/>
-      <c r="F927" s="5"/>
+      <c r="G927" s="6"/>
+      <c r="H927" s="5"/>
     </row>
     <row r="928">
-      <c r="E928" s="6"/>
-      <c r="F928" s="5"/>
+      <c r="G928" s="6"/>
+      <c r="H928" s="5"/>
     </row>
     <row r="929">
-      <c r="E929" s="6"/>
-      <c r="F929" s="5"/>
+      <c r="G929" s="6"/>
+      <c r="H929" s="5"/>
     </row>
     <row r="930">
-      <c r="E930" s="6"/>
-      <c r="F930" s="5"/>
+      <c r="G930" s="6"/>
+      <c r="H930" s="5"/>
     </row>
     <row r="931">
-      <c r="E931" s="6"/>
-      <c r="F931" s="5"/>
+      <c r="G931" s="6"/>
+      <c r="H931" s="5"/>
     </row>
     <row r="932">
-      <c r="E932" s="6"/>
-      <c r="F932" s="5"/>
+      <c r="G932" s="6"/>
+      <c r="H932" s="5"/>
     </row>
     <row r="933">
-      <c r="E933" s="6"/>
-      <c r="F933" s="5"/>
+      <c r="G933" s="6"/>
+      <c r="H933" s="5"/>
     </row>
     <row r="934">
-      <c r="E934" s="6"/>
-      <c r="F934" s="5"/>
+      <c r="G934" s="6"/>
+      <c r="H934" s="5"/>
     </row>
     <row r="935">
-      <c r="E935" s="6"/>
-      <c r="F935" s="5"/>
+      <c r="G935" s="6"/>
+      <c r="H935" s="5"/>
     </row>
     <row r="936">
-      <c r="E936" s="6"/>
-      <c r="F936" s="5"/>
+      <c r="G936" s="6"/>
+      <c r="H936" s="5"/>
     </row>
     <row r="937">
-      <c r="E937" s="6"/>
-      <c r="F937" s="5"/>
+      <c r="G937" s="6"/>
+      <c r="H937" s="5"/>
     </row>
     <row r="938">
-      <c r="E938" s="6"/>
-      <c r="F938" s="5"/>
+      <c r="G938" s="6"/>
+      <c r="H938" s="5"/>
     </row>
     <row r="939">
-      <c r="E939" s="6"/>
-      <c r="F939" s="5"/>
+      <c r="G939" s="6"/>
+      <c r="H939" s="5"/>
     </row>
     <row r="940">
-      <c r="E940" s="6"/>
-      <c r="F940" s="5"/>
+      <c r="G940" s="6"/>
+      <c r="H940" s="5"/>
     </row>
     <row r="941">
-      <c r="E941" s="6"/>
-      <c r="F941" s="5"/>
+      <c r="G941" s="6"/>
+      <c r="H941" s="5"/>
     </row>
     <row r="942">
-      <c r="E942" s="6"/>
-      <c r="F942" s="5"/>
+      <c r="G942" s="6"/>
+      <c r="H942" s="5"/>
     </row>
     <row r="943">
-      <c r="E943" s="6"/>
-      <c r="F943" s="5"/>
+      <c r="G943" s="6"/>
+      <c r="H943" s="5"/>
     </row>
     <row r="944">
-      <c r="E944" s="6"/>
-      <c r="F944" s="5"/>
+      <c r="G944" s="6"/>
+      <c r="H944" s="5"/>
     </row>
     <row r="945">
-      <c r="E945" s="6"/>
-      <c r="F945" s="5"/>
+      <c r="G945" s="6"/>
+      <c r="H945" s="5"/>
     </row>
     <row r="946">
-      <c r="E946" s="6"/>
-      <c r="F946" s="5"/>
+      <c r="G946" s="6"/>
+      <c r="H946" s="5"/>
     </row>
     <row r="947">
-      <c r="E947" s="6"/>
-      <c r="F947" s="5"/>
+      <c r="G947" s="6"/>
+      <c r="H947" s="5"/>
     </row>
     <row r="948">
-      <c r="E948" s="6"/>
-      <c r="F948" s="5"/>
+      <c r="G948" s="6"/>
+      <c r="H948" s="5"/>
     </row>
     <row r="949">
-      <c r="E949" s="6"/>
-      <c r="F949" s="5"/>
+      <c r="G949" s="6"/>
+      <c r="H949" s="5"/>
     </row>
     <row r="950">
-      <c r="E950" s="6"/>
-      <c r="F950" s="5"/>
+      <c r="G950" s="6"/>
+      <c r="H950" s="5"/>
     </row>
     <row r="951">
-      <c r="E951" s="6"/>
-      <c r="F951" s="5"/>
+      <c r="G951" s="6"/>
+      <c r="H951" s="5"/>
     </row>
     <row r="952">
-      <c r="E952" s="6"/>
-      <c r="F952" s="5"/>
+      <c r="G952" s="6"/>
+      <c r="H952" s="5"/>
     </row>
     <row r="953">
-      <c r="E953" s="6"/>
-      <c r="F953" s="5"/>
+      <c r="G953" s="6"/>
+      <c r="H953" s="5"/>
     </row>
     <row r="954">
-      <c r="E954" s="6"/>
-      <c r="F954" s="5"/>
+      <c r="G954" s="6"/>
+      <c r="H954" s="5"/>
     </row>
     <row r="955">
-      <c r="E955" s="6"/>
-      <c r="F955" s="5"/>
+      <c r="G955" s="6"/>
+      <c r="H955" s="5"/>
     </row>
     <row r="956">
-      <c r="E956" s="6"/>
-      <c r="F956" s="5"/>
+      <c r="G956" s="6"/>
+      <c r="H956" s="5"/>
     </row>
     <row r="957">
-      <c r="E957" s="6"/>
-      <c r="F957" s="5"/>
+      <c r="G957" s="6"/>
+      <c r="H957" s="5"/>
     </row>
     <row r="958">
-      <c r="E958" s="6"/>
-      <c r="F958" s="5"/>
+      <c r="G958" s="6"/>
+      <c r="H958" s="5"/>
     </row>
     <row r="959">
-      <c r="E959" s="6"/>
-      <c r="F959" s="5"/>
+      <c r="G959" s="6"/>
+      <c r="H959" s="5"/>
     </row>
     <row r="960">
-      <c r="E960" s="6"/>
-      <c r="F960" s="5"/>
+      <c r="G960" s="6"/>
+      <c r="H960" s="5"/>
     </row>
     <row r="961">
-      <c r="E961" s="6"/>
-      <c r="F961" s="5"/>
+      <c r="G961" s="6"/>
+      <c r="H961" s="5"/>
     </row>
     <row r="962">
-      <c r="E962" s="6"/>
-      <c r="F962" s="5"/>
+      <c r="G962" s="6"/>
+      <c r="H962" s="5"/>
     </row>
     <row r="963">
-      <c r="E963" s="6"/>
-      <c r="F963" s="5"/>
+      <c r="G963" s="6"/>
+      <c r="H963" s="5"/>
     </row>
     <row r="964">
-      <c r="E964" s="6"/>
-      <c r="F964" s="5"/>
+      <c r="G964" s="6"/>
+      <c r="H964" s="5"/>
     </row>
     <row r="965">
-      <c r="E965" s="6"/>
-      <c r="F965" s="5"/>
+      <c r="G965" s="6"/>
+      <c r="H965" s="5"/>
     </row>
     <row r="966">
-      <c r="E966" s="6"/>
-      <c r="F966" s="5"/>
+      <c r="G966" s="6"/>
+      <c r="H966" s="5"/>
     </row>
     <row r="967">
-      <c r="E967" s="6"/>
-      <c r="F967" s="5"/>
+      <c r="G967" s="6"/>
+      <c r="H967" s="5"/>
     </row>
     <row r="968">
-      <c r="E968" s="6"/>
-      <c r="F968" s="5"/>
+      <c r="G968" s="6"/>
+      <c r="H968" s="5"/>
     </row>
     <row r="969">
-      <c r="E969" s="6"/>
-      <c r="F969" s="5"/>
+      <c r="G969" s="6"/>
+      <c r="H969" s="5"/>
     </row>
     <row r="970">
-      <c r="E970" s="6"/>
-      <c r="F970" s="5"/>
+      <c r="G970" s="6"/>
+      <c r="H970" s="5"/>
     </row>
     <row r="971">
-      <c r="E971" s="6"/>
-      <c r="F971" s="5"/>
+      <c r="G971" s="6"/>
+      <c r="H971" s="5"/>
     </row>
     <row r="972">
-      <c r="E972" s="6"/>
-      <c r="F972" s="5"/>
+      <c r="G972" s="6"/>
+      <c r="H972" s="5"/>
     </row>
     <row r="973">
-      <c r="E973" s="6"/>
-      <c r="F973" s="5"/>
+      <c r="G973" s="6"/>
+      <c r="H973" s="5"/>
     </row>
     <row r="974">
-      <c r="E974" s="6"/>
-      <c r="F974" s="5"/>
+      <c r="G974" s="6"/>
+      <c r="H974" s="5"/>
     </row>
     <row r="975">
-      <c r="E975" s="6"/>
-      <c r="F975" s="5"/>
+      <c r="G975" s="6"/>
+      <c r="H975" s="5"/>
     </row>
     <row r="976">
-      <c r="E976" s="6"/>
-      <c r="F976" s="5"/>
+      <c r="G976" s="6"/>
+      <c r="H976" s="5"/>
     </row>
     <row r="977">
-      <c r="E977" s="6"/>
-      <c r="F977" s="5"/>
+      <c r="G977" s="6"/>
+      <c r="H977" s="5"/>
     </row>
     <row r="978">
-      <c r="E978" s="6"/>
-      <c r="F978" s="5"/>
+      <c r="G978" s="6"/>
+      <c r="H978" s="5"/>
     </row>
     <row r="979">
-      <c r="E979" s="6"/>
-      <c r="F979" s="5"/>
+      <c r="G979" s="6"/>
+      <c r="H979" s="5"/>
     </row>
     <row r="980">
-      <c r="E980" s="6"/>
-      <c r="F980" s="5"/>
+      <c r="G980" s="6"/>
+      <c r="H980" s="5"/>
     </row>
     <row r="981">
-      <c r="E981" s="6"/>
-      <c r="F981" s="5"/>
+      <c r="G981" s="6"/>
+      <c r="H981" s="5"/>
     </row>
     <row r="982">
-      <c r="E982" s="6"/>
-      <c r="F982" s="5"/>
+      <c r="G982" s="6"/>
+      <c r="H982" s="5"/>
     </row>
     <row r="983">
-      <c r="E983" s="6"/>
-      <c r="F983" s="5"/>
+      <c r="G983" s="6"/>
+      <c r="H983" s="5"/>
     </row>
     <row r="984">
-      <c r="E984" s="6"/>
-      <c r="F984" s="5"/>
+      <c r="G984" s="6"/>
+      <c r="H984" s="5"/>
     </row>
     <row r="985">
-      <c r="E985" s="6"/>
-      <c r="F985" s="5"/>
+      <c r="G985" s="6"/>
+      <c r="H985" s="5"/>
     </row>
     <row r="986">
-      <c r="E986" s="6"/>
-      <c r="F986" s="5"/>
+      <c r="G986" s="6"/>
+      <c r="H986" s="5"/>
     </row>
     <row r="987">
-      <c r="E987" s="6"/>
-      <c r="F987" s="5"/>
+      <c r="G987" s="6"/>
+      <c r="H987" s="5"/>
     </row>
     <row r="988">
-      <c r="E988" s="6"/>
-      <c r="F988" s="5"/>
+      <c r="G988" s="6"/>
+      <c r="H988" s="5"/>
     </row>
     <row r="989">
-      <c r="E989" s="6"/>
-      <c r="F989" s="5"/>
+      <c r="G989" s="6"/>
+      <c r="H989" s="5"/>
     </row>
     <row r="990">
-      <c r="E990" s="6"/>
-      <c r="F990" s="5"/>
+      <c r="G990" s="6"/>
+      <c r="H990" s="5"/>
     </row>
     <row r="991">
-      <c r="E991" s="6"/>
-      <c r="F991" s="5"/>
+      <c r="G991" s="6"/>
+      <c r="H991" s="5"/>
     </row>
     <row r="992">
-      <c r="E992" s="6"/>
-      <c r="F992" s="5"/>
+      <c r="G992" s="6"/>
+      <c r="H992" s="5"/>
     </row>
     <row r="993">
-      <c r="E993" s="6"/>
-      <c r="F993" s="5"/>
+      <c r="G993" s="6"/>
+      <c r="H993" s="5"/>
     </row>
     <row r="994">
-      <c r="E994" s="6"/>
-      <c r="F994" s="5"/>
+      <c r="G994" s="6"/>
+      <c r="H994" s="5"/>
     </row>
     <row r="995">
-      <c r="E995" s="6"/>
-      <c r="F995" s="5"/>
+      <c r="G995" s="6"/>
+      <c r="H995" s="5"/>
     </row>
     <row r="996">
-      <c r="E996" s="6"/>
-      <c r="F996" s="5"/>
+      <c r="G996" s="6"/>
+      <c r="H996" s="5"/>
     </row>
     <row r="997">
-      <c r="E997" s="6"/>
-      <c r="F997" s="5"/>
+      <c r="G997" s="6"/>
+      <c r="H997" s="5"/>
     </row>
     <row r="998">
-      <c r="E998" s="6"/>
-      <c r="F998" s="5"/>
+      <c r="G998" s="6"/>
+      <c r="H998" s="5"/>
     </row>
     <row r="999">
-      <c r="E999" s="6"/>
-      <c r="F999" s="5"/>
+      <c r="G999" s="6"/>
+      <c r="H999" s="5"/>
     </row>
     <row r="1000">
-      <c r="E1000" s="6"/>
-      <c r="F1000" s="5"/>
+      <c r="G1000" s="6"/>
+      <c r="H1000" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
